--- a/usaco-contest/2021Feb/C/CounttheCows.xlsx
+++ b/usaco-contest/2021Feb/C/CounttheCows.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\usaco-contest\2021Feb\C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\competitive-programming\usaco-contest\2021Feb\C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47469AD-0839-426A-8869-F80A57CDBFC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E14DC3F-0F43-4E3D-8B31-F9663F8D468A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="0" windowWidth="37000" windowHeight="18290" activeTab="2" xr2:uid="{A1B670E2-2F1D-420E-859E-64B4349BE0BA}"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="37005" windowHeight="18285" activeTab="2" xr2:uid="{A1B670E2-2F1D-420E-859E-64B4349BE0BA}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -299,13 +299,142 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -375,6 +504,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -396,16 +552,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>108415</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>111509</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>101845</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>118079</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>71244</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>80534</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>64674</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>87104</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -420,8 +576,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1564269" y="1920485"/>
-          <a:ext cx="1607634" cy="1595244"/>
+          <a:off x="2125086" y="2568303"/>
+          <a:ext cx="1618209" cy="1663818"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -459,10 +615,10 @@
       <xdr:rowOff>83634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>80537</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114608</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>111673</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>105104</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -477,8 +633,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="250902" y="625707"/>
-          <a:ext cx="1102733" cy="1115121"/>
+          <a:off x="258272" y="648565"/>
+          <a:ext cx="1692711" cy="1716263"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -511,6 +667,63 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>86681</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>113333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>105103</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>164225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC37F029-D781-49A9-B78B-CD8D966E36B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="270612" y="2189126"/>
+          <a:ext cx="4800629" cy="4911927"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -518,16 +731,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>74781</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:rowOff>88756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>111786</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>117769</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -542,8 +755,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5270500" y="254000"/>
-          <a:ext cx="7391400" cy="7315200"/>
+          <a:off x="2443607" y="279256"/>
+          <a:ext cx="14614396" cy="15045383"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -879,14 +1092,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.4140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="2.4140625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="2.4140625" style="3"/>
+    <col min="1" max="1" width="2.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="2.375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="2.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -897,7 +1110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -905,7 +1118,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -913,7 +1126,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -921,7 +1134,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
     </row>
-    <row r="5" spans="1:4" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -937,14 +1150,14 @@
       <selection activeCell="E8" sqref="E8:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.4140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="2.4140625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="2.4140625" style="3"/>
+    <col min="1" max="1" width="2.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="2.375" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="2.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -973,7 +1186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -987,7 +1200,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1001,7 +1214,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1015,7 +1228,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1029,7 +1242,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1043,7 +1256,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="19"/>
     </row>
-    <row r="7" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1057,7 +1270,7 @@
       <c r="I7" s="21"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1071,7 +1284,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1085,7 +1298,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1099,7 +1312,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1111,18 +1324,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B23B71-1DC1-4023-BDA5-AF5388257871}">
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:G10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.4140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="28" width="2.4140625" style="3" customWidth="1"/>
-    <col min="29" max="16384" width="2.4140625" style="3"/>
+    <col min="1" max="1" width="2.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="28" width="2.375" style="3" customWidth="1"/>
+    <col min="29" max="16384" width="2.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -1205,7 +1418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1237,7 +1450,7 @@
       <c r="AA2" s="5"/>
       <c r="AB2" s="6"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1269,7 +1482,7 @@
       <c r="AA3" s="8"/>
       <c r="AB3" s="9"/>
     </row>
-    <row r="4" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1301,7 +1514,7 @@
       <c r="AA4" s="12"/>
       <c r="AB4" s="13"/>
     </row>
-    <row r="5" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1333,7 +1546,7 @@
       <c r="AA5" s="15"/>
       <c r="AB5" s="16"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1365,7 +1578,7 @@
       <c r="AA6" s="18"/>
       <c r="AB6" s="19"/>
     </row>
-    <row r="7" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1397,7 +1610,7 @@
       <c r="AA7" s="21"/>
       <c r="AB7" s="22"/>
     </row>
-    <row r="8" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1429,7 +1642,7 @@
       <c r="AA8" s="5"/>
       <c r="AB8" s="6"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1461,7 +1674,7 @@
       <c r="AA9" s="8"/>
       <c r="AB9" s="9"/>
     </row>
-    <row r="10" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1493,7 +1706,7 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="13"/>
     </row>
-    <row r="11" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1525,7 +1738,7 @@
       <c r="AA11" s="15"/>
       <c r="AB11" s="16"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1557,7 +1770,7 @@
       <c r="AA12" s="18"/>
       <c r="AB12" s="19"/>
     </row>
-    <row r="13" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1589,7 +1802,7 @@
       <c r="AA13" s="18"/>
       <c r="AB13" s="19"/>
     </row>
-    <row r="14" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1621,7 +1834,7 @@
       <c r="AA14" s="18"/>
       <c r="AB14" s="19"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1653,7 +1866,7 @@
       <c r="AA15" s="18"/>
       <c r="AB15" s="19"/>
     </row>
-    <row r="16" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1685,7 +1898,7 @@
       <c r="AA16" s="18"/>
       <c r="AB16" s="19"/>
     </row>
-    <row r="17" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1717,7 +1930,7 @@
       <c r="AA17" s="18"/>
       <c r="AB17" s="19"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1749,7 +1962,7 @@
       <c r="AA18" s="18"/>
       <c r="AB18" s="19"/>
     </row>
-    <row r="19" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1781,7 +1994,7 @@
       <c r="AA19" s="21"/>
       <c r="AB19" s="22"/>
     </row>
-    <row r="20" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1813,7 +2026,7 @@
       <c r="AA20" s="5"/>
       <c r="AB20" s="6"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1845,7 +2058,7 @@
       <c r="AA21" s="8"/>
       <c r="AB21" s="9"/>
     </row>
-    <row r="22" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1877,7 +2090,7 @@
       <c r="AA22" s="12"/>
       <c r="AB22" s="13"/>
     </row>
-    <row r="23" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1909,7 +2122,7 @@
       <c r="AA23" s="15"/>
       <c r="AB23" s="16"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1941,7 +2154,7 @@
       <c r="AA24" s="18"/>
       <c r="AB24" s="19"/>
     </row>
-    <row r="25" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1973,7 +2186,7 @@
       <c r="AA25" s="21"/>
       <c r="AB25" s="22"/>
     </row>
-    <row r="26" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2005,7 +2218,7 @@
       <c r="AA26" s="5"/>
       <c r="AB26" s="6"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2037,7 +2250,7 @@
       <c r="AA27" s="8"/>
       <c r="AB27" s="9"/>
     </row>
-    <row r="28" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2069,7 +2282,7 @@
       <c r="AA28" s="12"/>
       <c r="AB28" s="13"/>
     </row>
-    <row r="29" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2082,18 +2295,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C05293-E3D8-4203-82C9-78D7D943FDD4}">
   <dimension ref="A1:CD83"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BO34" sqref="BO34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.4140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="28" width="2.4140625" style="3" customWidth="1"/>
-    <col min="29" max="16384" width="2.4140625" style="3"/>
+    <col min="1" max="1" width="2.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="28" width="2.375" style="3" customWidth="1"/>
+    <col min="29" max="16384" width="2.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -2338,7 +2551,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2351,6 +2564,15 @@
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="25"/>
       <c r="T2" s="4"/>
       <c r="U2" s="5"/>
       <c r="V2" s="6"/>
@@ -2379,7 +2601,7 @@
       <c r="CC2" s="5"/>
       <c r="CD2" s="6"/>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2392,6 +2614,15 @@
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
       <c r="J3" s="9"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="28"/>
       <c r="T3" s="7"/>
       <c r="U3" s="8"/>
       <c r="V3" s="9"/>
@@ -2420,7 +2651,7 @@
       <c r="CC3" s="8"/>
       <c r="CD3" s="9"/>
     </row>
-    <row r="4" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2433,6 +2664,15 @@
       <c r="H4" s="11"/>
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="28"/>
       <c r="T4" s="11"/>
       <c r="U4" s="12"/>
       <c r="V4" s="13"/>
@@ -2461,7 +2701,7 @@
       <c r="CC4" s="12"/>
       <c r="CD4" s="13"/>
     </row>
-    <row r="5" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2474,6 +2714,15 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="9"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="28"/>
       <c r="T5" s="7"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
@@ -2502,7 +2751,7 @@
       <c r="CC5" s="10"/>
       <c r="CD5" s="9"/>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2515,6 +2764,15 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="9"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="28"/>
       <c r="T6" s="7"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
@@ -2543,7 +2801,7 @@
       <c r="CC6" s="10"/>
       <c r="CD6" s="9"/>
     </row>
-    <row r="7" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2556,6 +2814,15 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="9"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="28"/>
       <c r="T7" s="7"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
@@ -2584,7 +2851,7 @@
       <c r="CC7" s="10"/>
       <c r="CD7" s="9"/>
     </row>
-    <row r="8" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2597,6 +2864,15 @@
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
       <c r="J8" s="6"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="28"/>
       <c r="T8" s="4"/>
       <c r="U8" s="5"/>
       <c r="V8" s="6"/>
@@ -2625,7 +2901,7 @@
       <c r="CC8" s="5"/>
       <c r="CD8" s="6"/>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2638,6 +2914,15 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
       <c r="J9" s="9"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="28"/>
       <c r="T9" s="7"/>
       <c r="U9" s="8"/>
       <c r="V9" s="9"/>
@@ -2666,7 +2951,7 @@
       <c r="CC9" s="8"/>
       <c r="CD9" s="9"/>
     </row>
-    <row r="10" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2679,6 +2964,15 @@
       <c r="H10" s="11"/>
       <c r="I10" s="12"/>
       <c r="J10" s="13"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="31"/>
       <c r="T10" s="11"/>
       <c r="U10" s="12"/>
       <c r="V10" s="13"/>
@@ -2707,7 +3001,7 @@
       <c r="CC10" s="12"/>
       <c r="CD10" s="13"/>
     </row>
-    <row r="11" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2730,7 +3024,7 @@
       <c r="BT11" s="5"/>
       <c r="BU11" s="6"/>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2753,7 +3047,7 @@
       <c r="BT12" s="8"/>
       <c r="BU12" s="9"/>
     </row>
-    <row r="13" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2776,7 +3070,7 @@
       <c r="BT13" s="12"/>
       <c r="BU13" s="13"/>
     </row>
-    <row r="14" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2799,7 +3093,7 @@
       <c r="BT14" s="10"/>
       <c r="BU14" s="9"/>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2822,7 +3116,7 @@
       <c r="BT15" s="10"/>
       <c r="BU15" s="9"/>
     </row>
-    <row r="16" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2845,7 +3139,7 @@
       <c r="BT16" s="10"/>
       <c r="BU16" s="9"/>
     </row>
-    <row r="17" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2868,7 +3162,7 @@
       <c r="BT17" s="5"/>
       <c r="BU17" s="6"/>
     </row>
-    <row r="18" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2891,7 +3185,7 @@
       <c r="BT18" s="8"/>
       <c r="BU18" s="9"/>
     </row>
-    <row r="19" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2914,7 +3208,7 @@
       <c r="BT19" s="12"/>
       <c r="BU19" s="13"/>
     </row>
-    <row r="20" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2955,7 +3249,7 @@
       <c r="CC20" s="5"/>
       <c r="CD20" s="6"/>
     </row>
-    <row r="21" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2996,7 +3290,7 @@
       <c r="CC21" s="8"/>
       <c r="CD21" s="9"/>
     </row>
-    <row r="22" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3037,7 +3331,7 @@
       <c r="CC22" s="12"/>
       <c r="CD22" s="13"/>
     </row>
-    <row r="23" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3078,7 +3372,7 @@
       <c r="CC23" s="10"/>
       <c r="CD23" s="9"/>
     </row>
-    <row r="24" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3119,7 +3413,7 @@
       <c r="CC24" s="10"/>
       <c r="CD24" s="9"/>
     </row>
-    <row r="25" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3160,7 +3454,7 @@
       <c r="CC25" s="10"/>
       <c r="CD25" s="9"/>
     </row>
-    <row r="26" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3201,7 +3495,7 @@
       <c r="CC26" s="5"/>
       <c r="CD26" s="6"/>
     </row>
-    <row r="27" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3242,7 +3536,7 @@
       <c r="CC27" s="8"/>
       <c r="CD27" s="9"/>
     </row>
-    <row r="28" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3283,7 +3577,7 @@
       <c r="CC28" s="12"/>
       <c r="CD28" s="13"/>
     </row>
-    <row r="29" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3306,7 +3600,7 @@
       <c r="BB29" s="5"/>
       <c r="BC29" s="6"/>
     </row>
-    <row r="30" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3329,7 +3623,7 @@
       <c r="BB30" s="8"/>
       <c r="BC30" s="9"/>
     </row>
-    <row r="31" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3352,7 +3646,7 @@
       <c r="BB31" s="12"/>
       <c r="BC31" s="13"/>
     </row>
-    <row r="32" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3375,7 +3669,7 @@
       <c r="BB32" s="10"/>
       <c r="BC32" s="9"/>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3398,7 +3692,7 @@
       <c r="BB33" s="10"/>
       <c r="BC33" s="9"/>
     </row>
-    <row r="34" spans="1:55" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3421,7 +3715,7 @@
       <c r="BB34" s="10"/>
       <c r="BC34" s="9"/>
     </row>
-    <row r="35" spans="1:55" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:55" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3444,7 +3738,7 @@
       <c r="BB35" s="5"/>
       <c r="BC35" s="6"/>
     </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3467,7 +3761,7 @@
       <c r="BB36" s="8"/>
       <c r="BC36" s="9"/>
     </row>
-    <row r="37" spans="1:55" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3490,7 +3784,7 @@
       <c r="BB37" s="12"/>
       <c r="BC37" s="13"/>
     </row>
-    <row r="38" spans="1:55" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:55" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3504,7 +3798,7 @@
       <c r="AS38" s="5"/>
       <c r="AT38" s="6"/>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3518,7 +3812,7 @@
       <c r="AS39" s="8"/>
       <c r="AT39" s="9"/>
     </row>
-    <row r="40" spans="1:55" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3532,7 +3826,7 @@
       <c r="AS40" s="12"/>
       <c r="AT40" s="13"/>
     </row>
-    <row r="41" spans="1:55" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:55" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3546,7 +3840,7 @@
       <c r="AS41" s="10"/>
       <c r="AT41" s="9"/>
     </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3560,7 +3854,7 @@
       <c r="AS42" s="10"/>
       <c r="AT42" s="9"/>
     </row>
-    <row r="43" spans="1:55" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3574,7 +3868,7 @@
       <c r="AS43" s="10"/>
       <c r="AT43" s="9"/>
     </row>
-    <row r="44" spans="1:55" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:55" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3588,7 +3882,7 @@
       <c r="AS44" s="5"/>
       <c r="AT44" s="6"/>
     </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3602,7 +3896,7 @@
       <c r="AS45" s="8"/>
       <c r="AT45" s="9"/>
     </row>
-    <row r="46" spans="1:55" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3616,7 +3910,7 @@
       <c r="AS46" s="12"/>
       <c r="AT46" s="13"/>
     </row>
-    <row r="47" spans="1:55" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:55" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3639,7 +3933,7 @@
       <c r="BB47" s="5"/>
       <c r="BC47" s="6"/>
     </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3662,7 +3956,7 @@
       <c r="BB48" s="8"/>
       <c r="BC48" s="9"/>
     </row>
-    <row r="49" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3685,7 +3979,7 @@
       <c r="BB49" s="12"/>
       <c r="BC49" s="13"/>
     </row>
-    <row r="50" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3708,7 +4002,7 @@
       <c r="BB50" s="10"/>
       <c r="BC50" s="9"/>
     </row>
-    <row r="51" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3731,7 +4025,7 @@
       <c r="BB51" s="10"/>
       <c r="BC51" s="9"/>
     </row>
-    <row r="52" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3754,7 +4048,7 @@
       <c r="BB52" s="10"/>
       <c r="BC52" s="9"/>
     </row>
-    <row r="53" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3777,7 +4071,7 @@
       <c r="BB53" s="5"/>
       <c r="BC53" s="6"/>
     </row>
-    <row r="54" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3800,7 +4094,7 @@
       <c r="BB54" s="8"/>
       <c r="BC54" s="9"/>
     </row>
-    <row r="55" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3823,7 +4117,7 @@
       <c r="BB55" s="12"/>
       <c r="BC55" s="13"/>
     </row>
-    <row r="56" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3864,7 +4158,7 @@
       <c r="CC56" s="5"/>
       <c r="CD56" s="6"/>
     </row>
-    <row r="57" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3905,7 +4199,7 @@
       <c r="CC57" s="8"/>
       <c r="CD57" s="9"/>
     </row>
-    <row r="58" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3946,7 +4240,7 @@
       <c r="CC58" s="12"/>
       <c r="CD58" s="13"/>
     </row>
-    <row r="59" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3987,7 +4281,7 @@
       <c r="CC59" s="10"/>
       <c r="CD59" s="9"/>
     </row>
-    <row r="60" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4028,7 +4322,7 @@
       <c r="CC60" s="10"/>
       <c r="CD60" s="9"/>
     </row>
-    <row r="61" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4069,7 +4363,7 @@
       <c r="CC61" s="10"/>
       <c r="CD61" s="9"/>
     </row>
-    <row r="62" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4110,7 +4404,7 @@
       <c r="CC62" s="5"/>
       <c r="CD62" s="6"/>
     </row>
-    <row r="63" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4151,7 +4445,7 @@
       <c r="CC63" s="8"/>
       <c r="CD63" s="9"/>
     </row>
-    <row r="64" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4192,7 +4486,7 @@
       <c r="CC64" s="12"/>
       <c r="CD64" s="13"/>
     </row>
-    <row r="65" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4215,7 +4509,7 @@
       <c r="BT65" s="5"/>
       <c r="BU65" s="6"/>
     </row>
-    <row r="66" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4238,7 +4532,7 @@
       <c r="BT66" s="8"/>
       <c r="BU66" s="9"/>
     </row>
-    <row r="67" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4261,7 +4555,7 @@
       <c r="BT67" s="12"/>
       <c r="BU67" s="13"/>
     </row>
-    <row r="68" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4284,7 +4578,7 @@
       <c r="BT68" s="10"/>
       <c r="BU68" s="9"/>
     </row>
-    <row r="69" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4307,7 +4601,7 @@
       <c r="BT69" s="10"/>
       <c r="BU69" s="9"/>
     </row>
-    <row r="70" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4330,7 +4624,7 @@
       <c r="BT70" s="10"/>
       <c r="BU70" s="9"/>
     </row>
-    <row r="71" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4353,7 +4647,7 @@
       <c r="BT71" s="5"/>
       <c r="BU71" s="6"/>
     </row>
-    <row r="72" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4376,7 +4670,7 @@
       <c r="BT72" s="8"/>
       <c r="BU72" s="9"/>
     </row>
-    <row r="73" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4399,7 +4693,7 @@
       <c r="BT73" s="12"/>
       <c r="BU73" s="13"/>
     </row>
-    <row r="74" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4440,7 +4734,7 @@
       <c r="CC74" s="5"/>
       <c r="CD74" s="6"/>
     </row>
-    <row r="75" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4481,7 +4775,7 @@
       <c r="CC75" s="8"/>
       <c r="CD75" s="9"/>
     </row>
-    <row r="76" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4522,7 +4816,7 @@
       <c r="CC76" s="12"/>
       <c r="CD76" s="13"/>
     </row>
-    <row r="77" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4563,7 +4857,7 @@
       <c r="CC77" s="10"/>
       <c r="CD77" s="9"/>
     </row>
-    <row r="78" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4604,7 +4898,7 @@
       <c r="CC78" s="10"/>
       <c r="CD78" s="9"/>
     </row>
-    <row r="79" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4645,7 +4939,7 @@
       <c r="CC79" s="10"/>
       <c r="CD79" s="9"/>
     </row>
-    <row r="80" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4686,7 +4980,7 @@
       <c r="CC80" s="5"/>
       <c r="CD80" s="6"/>
     </row>
-    <row r="81" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4727,7 +5021,7 @@
       <c r="CC81" s="8"/>
       <c r="CD81" s="9"/>
     </row>
-    <row r="82" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4768,11 +5062,11 @@
       <c r="CC82" s="12"/>
       <c r="CD82" s="13"/>
     </row>
-    <row r="83" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/usaco-contest/2021Feb/C/CounttheCows.xlsx
+++ b/usaco-contest/2021Feb/C/CounttheCows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\competitive-programming\usaco-contest\2021Feb\C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\usaco-contest\2021Feb\C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E14DC3F-0F43-4E3D-8B31-F9663F8D468A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6340E7E-A3D1-4709-B885-410F0BB1C711}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="37005" windowHeight="18285" activeTab="2" xr2:uid="{A1B670E2-2F1D-420E-859E-64B4349BE0BA}"/>
+    <workbookView xWindow="2800" yWindow="0" windowWidth="37010" windowHeight="18290" activeTab="2" xr2:uid="{A1B670E2-2F1D-420E-859E-64B4349BE0BA}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -552,16 +552,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>101845</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>118079</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>79949</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>52390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>64674</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>87104</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>42777</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>21415</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -576,8 +576,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2125086" y="2568303"/>
-          <a:ext cx="1618209" cy="1663818"/>
+          <a:off x="3132328" y="1878562"/>
+          <a:ext cx="1578794" cy="1611267"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -609,16 +609,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>74341</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>83634</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>83105</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>105531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>111673</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>105104</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>91965</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>144517</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -633,8 +633,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="258272" y="648565"/>
-          <a:ext cx="1692711" cy="1716263"/>
+          <a:off x="442208" y="473393"/>
+          <a:ext cx="1086171" cy="1133814"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -669,16 +669,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>86681</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>113333</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>87587</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>100726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>105103</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>164225</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>96345</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>96345</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -693,8 +693,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="270612" y="2189126"/>
-          <a:ext cx="4800629" cy="4911927"/>
+          <a:off x="1344449" y="284657"/>
+          <a:ext cx="367862" cy="359102"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1092,14 +1092,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="2.375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="2.375" style="3"/>
+    <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="2.33203125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="2.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1118,7 +1118,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1126,7 +1126,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1134,7 +1134,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
     </row>
-    <row r="5" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:4" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1150,14 +1150,14 @@
       <selection activeCell="E8" sqref="E8:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="2.375" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="2.375" style="3"/>
+    <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="2.33203125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="2.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1200,7 +1200,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1214,7 +1214,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1228,7 +1228,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1256,7 +1256,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="19"/>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1270,7 +1270,7 @@
       <c r="I7" s="21"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1284,7 +1284,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1325,17 +1325,17 @@
   <dimension ref="A1:AB29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="28" width="2.375" style="3" customWidth="1"/>
-    <col min="29" max="16384" width="2.375" style="3"/>
+    <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="28" width="2.33203125" style="3" customWidth="1"/>
+    <col min="29" max="16384" width="2.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="AA2" s="5"/>
       <c r="AB2" s="6"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1482,7 +1482,7 @@
       <c r="AA3" s="8"/>
       <c r="AB3" s="9"/>
     </row>
-    <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1514,7 +1514,7 @@
       <c r="AA4" s="12"/>
       <c r="AB4" s="13"/>
     </row>
-    <row r="5" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1546,7 +1546,7 @@
       <c r="AA5" s="15"/>
       <c r="AB5" s="16"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="AA6" s="18"/>
       <c r="AB6" s="19"/>
     </row>
-    <row r="7" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1610,7 +1610,7 @@
       <c r="AA7" s="21"/>
       <c r="AB7" s="22"/>
     </row>
-    <row r="8" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1642,7 +1642,7 @@
       <c r="AA8" s="5"/>
       <c r="AB8" s="6"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="AA9" s="8"/>
       <c r="AB9" s="9"/>
     </row>
-    <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1706,7 +1706,7 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="13"/>
     </row>
-    <row r="11" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="AA11" s="15"/>
       <c r="AB11" s="16"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1770,7 +1770,7 @@
       <c r="AA12" s="18"/>
       <c r="AB12" s="19"/>
     </row>
-    <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1802,7 +1802,7 @@
       <c r="AA13" s="18"/>
       <c r="AB13" s="19"/>
     </row>
-    <row r="14" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1834,7 +1834,7 @@
       <c r="AA14" s="18"/>
       <c r="AB14" s="19"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1866,7 +1866,7 @@
       <c r="AA15" s="18"/>
       <c r="AB15" s="19"/>
     </row>
-    <row r="16" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1898,7 +1898,7 @@
       <c r="AA16" s="18"/>
       <c r="AB16" s="19"/>
     </row>
-    <row r="17" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1930,7 +1930,7 @@
       <c r="AA17" s="18"/>
       <c r="AB17" s="19"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1962,7 +1962,7 @@
       <c r="AA18" s="18"/>
       <c r="AB18" s="19"/>
     </row>
-    <row r="19" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="AA19" s="21"/>
       <c r="AB19" s="22"/>
     </row>
-    <row r="20" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2026,7 +2026,7 @@
       <c r="AA20" s="5"/>
       <c r="AB20" s="6"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="AA21" s="8"/>
       <c r="AB21" s="9"/>
     </row>
-    <row r="22" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2090,7 +2090,7 @@
       <c r="AA22" s="12"/>
       <c r="AB22" s="13"/>
     </row>
-    <row r="23" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2122,7 +2122,7 @@
       <c r="AA23" s="15"/>
       <c r="AB23" s="16"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2154,7 +2154,7 @@
       <c r="AA24" s="18"/>
       <c r="AB24" s="19"/>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2186,7 +2186,7 @@
       <c r="AA25" s="21"/>
       <c r="AB25" s="22"/>
     </row>
-    <row r="26" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2218,7 +2218,7 @@
       <c r="AA26" s="5"/>
       <c r="AB26" s="6"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2250,7 +2250,7 @@
       <c r="AA27" s="8"/>
       <c r="AB27" s="9"/>
     </row>
-    <row r="28" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2282,7 +2282,7 @@
       <c r="AA28" s="12"/>
       <c r="AB28" s="13"/>
     </row>
-    <row r="29" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2299,14 +2299,14 @@
       <selection activeCell="BO34" sqref="BO34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="28" width="2.375" style="3" customWidth="1"/>
-    <col min="29" max="16384" width="2.375" style="3"/>
+    <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="28" width="2.33203125" style="3" customWidth="1"/>
+    <col min="29" max="16384" width="2.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2601,7 +2601,7 @@
       <c r="CC2" s="5"/>
       <c r="CD2" s="6"/>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2651,7 +2651,7 @@
       <c r="CC3" s="8"/>
       <c r="CD3" s="9"/>
     </row>
-    <row r="4" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2701,7 +2701,7 @@
       <c r="CC4" s="12"/>
       <c r="CD4" s="13"/>
     </row>
-    <row r="5" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2751,7 +2751,7 @@
       <c r="CC5" s="10"/>
       <c r="CD5" s="9"/>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2801,7 +2801,7 @@
       <c r="CC6" s="10"/>
       <c r="CD6" s="9"/>
     </row>
-    <row r="7" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2851,7 +2851,7 @@
       <c r="CC7" s="10"/>
       <c r="CD7" s="9"/>
     </row>
-    <row r="8" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2901,7 +2901,7 @@
       <c r="CC8" s="5"/>
       <c r="CD8" s="6"/>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2951,7 +2951,7 @@
       <c r="CC9" s="8"/>
       <c r="CD9" s="9"/>
     </row>
-    <row r="10" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3001,7 +3001,7 @@
       <c r="CC10" s="12"/>
       <c r="CD10" s="13"/>
     </row>
-    <row r="11" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3024,7 +3024,7 @@
       <c r="BT11" s="5"/>
       <c r="BU11" s="6"/>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3047,7 +3047,7 @@
       <c r="BT12" s="8"/>
       <c r="BU12" s="9"/>
     </row>
-    <row r="13" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3070,7 +3070,7 @@
       <c r="BT13" s="12"/>
       <c r="BU13" s="13"/>
     </row>
-    <row r="14" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3093,7 +3093,7 @@
       <c r="BT14" s="10"/>
       <c r="BU14" s="9"/>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3116,7 +3116,7 @@
       <c r="BT15" s="10"/>
       <c r="BU15" s="9"/>
     </row>
-    <row r="16" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3139,7 +3139,7 @@
       <c r="BT16" s="10"/>
       <c r="BU16" s="9"/>
     </row>
-    <row r="17" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3162,7 +3162,7 @@
       <c r="BT17" s="5"/>
       <c r="BU17" s="6"/>
     </row>
-    <row r="18" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3185,7 +3185,7 @@
       <c r="BT18" s="8"/>
       <c r="BU18" s="9"/>
     </row>
-    <row r="19" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3208,7 +3208,7 @@
       <c r="BT19" s="12"/>
       <c r="BU19" s="13"/>
     </row>
-    <row r="20" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3249,7 +3249,7 @@
       <c r="CC20" s="5"/>
       <c r="CD20" s="6"/>
     </row>
-    <row r="21" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3290,7 +3290,7 @@
       <c r="CC21" s="8"/>
       <c r="CD21" s="9"/>
     </row>
-    <row r="22" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3331,7 +3331,7 @@
       <c r="CC22" s="12"/>
       <c r="CD22" s="13"/>
     </row>
-    <row r="23" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3372,7 +3372,7 @@
       <c r="CC23" s="10"/>
       <c r="CD23" s="9"/>
     </row>
-    <row r="24" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3413,7 +3413,7 @@
       <c r="CC24" s="10"/>
       <c r="CD24" s="9"/>
     </row>
-    <row r="25" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3454,7 +3454,7 @@
       <c r="CC25" s="10"/>
       <c r="CD25" s="9"/>
     </row>
-    <row r="26" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3495,7 +3495,7 @@
       <c r="CC26" s="5"/>
       <c r="CD26" s="6"/>
     </row>
-    <row r="27" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3536,7 +3536,7 @@
       <c r="CC27" s="8"/>
       <c r="CD27" s="9"/>
     </row>
-    <row r="28" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3577,7 +3577,7 @@
       <c r="CC28" s="12"/>
       <c r="CD28" s="13"/>
     </row>
-    <row r="29" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3600,7 +3600,7 @@
       <c r="BB29" s="5"/>
       <c r="BC29" s="6"/>
     </row>
-    <row r="30" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3623,7 +3623,7 @@
       <c r="BB30" s="8"/>
       <c r="BC30" s="9"/>
     </row>
-    <row r="31" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="BB31" s="12"/>
       <c r="BC31" s="13"/>
     </row>
-    <row r="32" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3669,7 +3669,7 @@
       <c r="BB32" s="10"/>
       <c r="BC32" s="9"/>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3692,7 +3692,7 @@
       <c r="BB33" s="10"/>
       <c r="BC33" s="9"/>
     </row>
-    <row r="34" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3715,7 +3715,7 @@
       <c r="BB34" s="10"/>
       <c r="BC34" s="9"/>
     </row>
-    <row r="35" spans="1:55" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:55" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3738,7 +3738,7 @@
       <c r="BB35" s="5"/>
       <c r="BC35" s="6"/>
     </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3761,7 +3761,7 @@
       <c r="BB36" s="8"/>
       <c r="BC36" s="9"/>
     </row>
-    <row r="37" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:55" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3784,7 +3784,7 @@
       <c r="BB37" s="12"/>
       <c r="BC37" s="13"/>
     </row>
-    <row r="38" spans="1:55" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:55" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3798,7 +3798,7 @@
       <c r="AS38" s="5"/>
       <c r="AT38" s="6"/>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3812,7 +3812,7 @@
       <c r="AS39" s="8"/>
       <c r="AT39" s="9"/>
     </row>
-    <row r="40" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:55" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3826,7 +3826,7 @@
       <c r="AS40" s="12"/>
       <c r="AT40" s="13"/>
     </row>
-    <row r="41" spans="1:55" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:55" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3840,7 +3840,7 @@
       <c r="AS41" s="10"/>
       <c r="AT41" s="9"/>
     </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3854,7 +3854,7 @@
       <c r="AS42" s="10"/>
       <c r="AT42" s="9"/>
     </row>
-    <row r="43" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:55" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3868,7 +3868,7 @@
       <c r="AS43" s="10"/>
       <c r="AT43" s="9"/>
     </row>
-    <row r="44" spans="1:55" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:55" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3882,7 +3882,7 @@
       <c r="AS44" s="5"/>
       <c r="AT44" s="6"/>
     </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3896,7 +3896,7 @@
       <c r="AS45" s="8"/>
       <c r="AT45" s="9"/>
     </row>
-    <row r="46" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:55" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3910,7 +3910,7 @@
       <c r="AS46" s="12"/>
       <c r="AT46" s="13"/>
     </row>
-    <row r="47" spans="1:55" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:55" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3933,7 +3933,7 @@
       <c r="BB47" s="5"/>
       <c r="BC47" s="6"/>
     </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3956,7 +3956,7 @@
       <c r="BB48" s="8"/>
       <c r="BC48" s="9"/>
     </row>
-    <row r="49" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3979,7 +3979,7 @@
       <c r="BB49" s="12"/>
       <c r="BC49" s="13"/>
     </row>
-    <row r="50" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4002,7 +4002,7 @@
       <c r="BB50" s="10"/>
       <c r="BC50" s="9"/>
     </row>
-    <row r="51" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4025,7 +4025,7 @@
       <c r="BB51" s="10"/>
       <c r="BC51" s="9"/>
     </row>
-    <row r="52" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4048,7 +4048,7 @@
       <c r="BB52" s="10"/>
       <c r="BC52" s="9"/>
     </row>
-    <row r="53" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4071,7 +4071,7 @@
       <c r="BB53" s="5"/>
       <c r="BC53" s="6"/>
     </row>
-    <row r="54" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4094,7 +4094,7 @@
       <c r="BB54" s="8"/>
       <c r="BC54" s="9"/>
     </row>
-    <row r="55" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4117,7 +4117,7 @@
       <c r="BB55" s="12"/>
       <c r="BC55" s="13"/>
     </row>
-    <row r="56" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4158,7 +4158,7 @@
       <c r="CC56" s="5"/>
       <c r="CD56" s="6"/>
     </row>
-    <row r="57" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4199,7 +4199,7 @@
       <c r="CC57" s="8"/>
       <c r="CD57" s="9"/>
     </row>
-    <row r="58" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4240,7 +4240,7 @@
       <c r="CC58" s="12"/>
       <c r="CD58" s="13"/>
     </row>
-    <row r="59" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4281,7 +4281,7 @@
       <c r="CC59" s="10"/>
       <c r="CD59" s="9"/>
     </row>
-    <row r="60" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4322,7 +4322,7 @@
       <c r="CC60" s="10"/>
       <c r="CD60" s="9"/>
     </row>
-    <row r="61" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4363,7 +4363,7 @@
       <c r="CC61" s="10"/>
       <c r="CD61" s="9"/>
     </row>
-    <row r="62" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4404,7 +4404,7 @@
       <c r="CC62" s="5"/>
       <c r="CD62" s="6"/>
     </row>
-    <row r="63" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4445,7 +4445,7 @@
       <c r="CC63" s="8"/>
       <c r="CD63" s="9"/>
     </row>
-    <row r="64" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4486,7 +4486,7 @@
       <c r="CC64" s="12"/>
       <c r="CD64" s="13"/>
     </row>
-    <row r="65" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4509,7 +4509,7 @@
       <c r="BT65" s="5"/>
       <c r="BU65" s="6"/>
     </row>
-    <row r="66" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4532,7 +4532,7 @@
       <c r="BT66" s="8"/>
       <c r="BU66" s="9"/>
     </row>
-    <row r="67" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4555,7 +4555,7 @@
       <c r="BT67" s="12"/>
       <c r="BU67" s="13"/>
     </row>
-    <row r="68" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4578,7 +4578,7 @@
       <c r="BT68" s="10"/>
       <c r="BU68" s="9"/>
     </row>
-    <row r="69" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4601,7 +4601,7 @@
       <c r="BT69" s="10"/>
       <c r="BU69" s="9"/>
     </row>
-    <row r="70" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4624,7 +4624,7 @@
       <c r="BT70" s="10"/>
       <c r="BU70" s="9"/>
     </row>
-    <row r="71" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4647,7 +4647,7 @@
       <c r="BT71" s="5"/>
       <c r="BU71" s="6"/>
     </row>
-    <row r="72" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4670,7 +4670,7 @@
       <c r="BT72" s="8"/>
       <c r="BU72" s="9"/>
     </row>
-    <row r="73" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4693,7 +4693,7 @@
       <c r="BT73" s="12"/>
       <c r="BU73" s="13"/>
     </row>
-    <row r="74" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4734,7 +4734,7 @@
       <c r="CC74" s="5"/>
       <c r="CD74" s="6"/>
     </row>
-    <row r="75" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4775,7 +4775,7 @@
       <c r="CC75" s="8"/>
       <c r="CD75" s="9"/>
     </row>
-    <row r="76" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4816,7 +4816,7 @@
       <c r="CC76" s="12"/>
       <c r="CD76" s="13"/>
     </row>
-    <row r="77" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4857,7 +4857,7 @@
       <c r="CC77" s="10"/>
       <c r="CD77" s="9"/>
     </row>
-    <row r="78" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4898,7 +4898,7 @@
       <c r="CC78" s="10"/>
       <c r="CD78" s="9"/>
     </row>
-    <row r="79" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4939,7 +4939,7 @@
       <c r="CC79" s="10"/>
       <c r="CD79" s="9"/>
     </row>
-    <row r="80" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4980,7 +4980,7 @@
       <c r="CC80" s="5"/>
       <c r="CD80" s="6"/>
     </row>
-    <row r="81" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5021,7 +5021,7 @@
       <c r="CC81" s="8"/>
       <c r="CD81" s="9"/>
     </row>
-    <row r="82" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5062,7 +5062,7 @@
       <c r="CC82" s="12"/>
       <c r="CD82" s="13"/>
     </row>
-    <row r="83" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/usaco-contest/2021Feb/C/CounttheCows.xlsx
+++ b/usaco-contest/2021Feb/C/CounttheCows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\usaco-contest\2021Feb\C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6340E7E-A3D1-4709-B885-410F0BB1C711}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70305E1C-20C7-4C7A-9ACB-C9A5958F0055}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="0" windowWidth="37010" windowHeight="18290" activeTab="2" xr2:uid="{A1B670E2-2F1D-420E-859E-64B4349BE0BA}"/>
+    <workbookView xWindow="4200" yWindow="0" windowWidth="37010" windowHeight="18290" activeTab="2" xr2:uid="{A1B670E2-2F1D-420E-859E-64B4349BE0BA}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +61,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -434,7 +442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -531,6 +539,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -552,16 +575,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>79949</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>52390</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>78988</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>122276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>42777</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>21415</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>88282</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>120805</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -576,8 +599,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3132328" y="1878562"/>
-          <a:ext cx="1578794" cy="1611267"/>
+          <a:off x="1891061" y="3384008"/>
+          <a:ext cx="1640160" cy="1629395"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -610,15 +633,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>83105</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>105531</xdr:rowOff>
+      <xdr:colOff>112461</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>91965</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>144517</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>111512</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>134744</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -633,8 +656,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="442208" y="473393"/>
-          <a:ext cx="1086171" cy="1133814"/>
+          <a:off x="474876" y="1172725"/>
+          <a:ext cx="3623197" cy="3673409"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -669,16 +692,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>87587</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>100726</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114687</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>134743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>96345</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>96345</xdr:rowOff>
+      <xdr:colOff>98049</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>125696</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -693,8 +716,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1344449" y="284657"/>
-          <a:ext cx="367862" cy="359102"/>
+          <a:off x="295894" y="1765609"/>
+          <a:ext cx="1433021" cy="1440611"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1147,7 +1170,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:G10"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1324,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B23B71-1DC1-4023-BDA5-AF5388257871}">
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1422,9 +1445,15 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="32">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
       <c r="E2" s="14"/>
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
@@ -1454,9 +1483,15 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="33">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
       <c r="E3" s="17"/>
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
@@ -1486,9 +1521,15 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
+      <c r="B4" s="36">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="35">
+        <v>3</v>
+      </c>
       <c r="E4" s="20"/>
       <c r="F4" s="21"/>
       <c r="G4" s="22"/>

--- a/usaco-contest/2021Feb/C/CounttheCows.xlsx
+++ b/usaco-contest/2021Feb/C/CounttheCows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\usaco-contest\2021Feb\C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70305E1C-20C7-4C7A-9ACB-C9A5958F0055}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BE5B5C-8287-4251-AAAD-FA063F47C0B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="0" windowWidth="37010" windowHeight="18290" activeTab="2" xr2:uid="{A1B670E2-2F1D-420E-859E-64B4349BE0BA}"/>
+    <workbookView xWindow="7000" yWindow="0" windowWidth="37010" windowHeight="18290" activeTab="2" xr2:uid="{A1B670E2-2F1D-420E-859E-64B4349BE0BA}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -554,12 +554,35 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -572,6 +595,68 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>72119</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>97428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>126365</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接连接符 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26FFA43E-6DD1-4818-BF58-CB7C970F9B94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2266679" y="463188"/>
+          <a:ext cx="237126" cy="218802"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -632,14 +717,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>112461</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85481</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>90236</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>111512</xdr:colOff>
+      <xdr:colOff>111513</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>134744</xdr:rowOff>
     </xdr:to>
@@ -656,8 +741,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="474876" y="1172725"/>
-          <a:ext cx="3623197" cy="3673409"/>
+          <a:off x="267368" y="989263"/>
+          <a:ext cx="3741040" cy="3871218"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -747,10 +832,70 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>84053</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接连接符 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E7A24EE-F672-4FD2-9619-4D5317B3BB52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5513303" y="1735389"/>
+          <a:ext cx="3221122" cy="3265236"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1112,7 +1257,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1137,25 +1282,43 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="32">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="33">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
+      <c r="B4" s="36">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="35">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -1167,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D85526-8EDF-4405-92FF-0835C9A1A112}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView showGridLines="0" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1180,7 +1343,7 @@
     <col min="11" max="16384" width="2.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -1209,49 +1372,98 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="32">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
       <c r="E2" s="14"/>
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M2" s="32"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="6"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="33">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
       <c r="E3" s="17"/>
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
       <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="38"/>
+      <c r="N3" s="33">
+        <v>1</v>
+      </c>
+      <c r="O3" s="39"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="8">
+        <v>2</v>
+      </c>
+      <c r="U3" s="39"/>
+    </row>
+    <row r="4" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
+      <c r="B4" s="36">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="35">
+        <v>3</v>
+      </c>
       <c r="E4" s="20"/>
       <c r="F4" s="21"/>
       <c r="G4" s="22"/>
       <c r="H4" s="11"/>
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="36"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="13"/>
+    </row>
+    <row r="5" spans="1:21" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1264,8 +1476,17 @@
       <c r="H5" s="14"/>
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M5" s="14"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="16"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1278,8 +1499,19 @@
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
       <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="17"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="8">
+        <v>3</v>
+      </c>
+      <c r="R6" s="39"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="19"/>
+    </row>
+    <row r="7" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1292,8 +1524,17 @@
       <c r="H7" s="20"/>
       <c r="I7" s="21"/>
       <c r="J7" s="22"/>
-    </row>
-    <row r="8" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="20"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="22"/>
+    </row>
+    <row r="8" spans="1:21" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1306,8 +1547,17 @@
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
       <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M8" s="4"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1320,8 +1570,21 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
       <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="38"/>
+      <c r="N9" s="8">
+        <v>4</v>
+      </c>
+      <c r="O9" s="39"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="8">
+        <v>5</v>
+      </c>
+      <c r="U9" s="39"/>
+    </row>
+    <row r="10" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1334,21 +1597,31 @@
       <c r="H10" s="11"/>
       <c r="I10" s="12"/>
       <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="13"/>
+    </row>
+    <row r="11" spans="1:21" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B23B71-1DC1-4023-BDA5-AF5388257871}">
-  <dimension ref="A1:AB29"/>
+  <dimension ref="A1:BE29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA45" sqref="AA45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1358,7 +1631,7 @@
     <col min="29" max="16384" width="2.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:57" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -1441,7 +1714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1478,8 +1751,41 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="6"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AE2" s="32">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="41">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="32"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="37"/>
+      <c r="BE2" s="6"/>
+    </row>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1516,8 +1822,41 @@
       <c r="Z3" s="7"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="9"/>
-    </row>
-    <row r="4" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE3" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="33">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="17"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="19"/>
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="33"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="39"/>
+    </row>
+    <row r="4" spans="1:57" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1554,8 +1893,41 @@
       <c r="Z4" s="11"/>
       <c r="AA4" s="12"/>
       <c r="AB4" s="13"/>
-    </row>
-    <row r="5" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AE4" s="42">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="33">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="18"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="19"/>
+      <c r="AW4" s="42"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="33"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="39"/>
+    </row>
+    <row r="5" spans="1:57" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1586,8 +1958,35 @@
       <c r="Z5" s="14"/>
       <c r="AA5" s="15"/>
       <c r="AB5" s="16"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="39"/>
+      <c r="AN5" s="17"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="38"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="39"/>
+    </row>
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1618,8 +2017,35 @@
       <c r="Z6" s="17"/>
       <c r="AA6" s="18"/>
       <c r="AB6" s="19"/>
-    </row>
-    <row r="7" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="39"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="18"/>
+      <c r="AS6" s="18"/>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="38"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="8"/>
+      <c r="BD6" s="8"/>
+      <c r="BE6" s="39"/>
+    </row>
+    <row r="7" spans="1:57" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1650,8 +2076,35 @@
       <c r="Z7" s="20"/>
       <c r="AA7" s="21"/>
       <c r="AB7" s="22"/>
-    </row>
-    <row r="8" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="17"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="19"/>
+      <c r="AW7" s="38"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="8"/>
+      <c r="BC7" s="8"/>
+      <c r="BD7" s="8"/>
+      <c r="BE7" s="39"/>
+    </row>
+    <row r="8" spans="1:57" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1682,8 +2135,35 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="6"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="39"/>
+      <c r="AN8" s="17"/>
+      <c r="AO8" s="18"/>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="18"/>
+      <c r="AS8" s="18"/>
+      <c r="AT8" s="18"/>
+      <c r="AU8" s="18"/>
+      <c r="AV8" s="19"/>
+      <c r="AW8" s="38"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="8"/>
+      <c r="BC8" s="8"/>
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="39"/>
+    </row>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1714,8 +2194,35 @@
       <c r="Z9" s="7"/>
       <c r="AA9" s="8"/>
       <c r="AB9" s="9"/>
-    </row>
-    <row r="10" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="18"/>
+      <c r="AP9" s="18"/>
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="18"/>
+      <c r="AT9" s="18"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="38"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="8"/>
+      <c r="BC9" s="8"/>
+      <c r="BD9" s="8"/>
+      <c r="BE9" s="39"/>
+    </row>
+    <row r="10" spans="1:57" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1746,8 +2253,35 @@
       <c r="Z10" s="11"/>
       <c r="AA10" s="12"/>
       <c r="AB10" s="13"/>
-    </row>
-    <row r="11" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="40"/>
+      <c r="AH10" s="40"/>
+      <c r="AI10" s="40"/>
+      <c r="AJ10" s="40"/>
+      <c r="AK10" s="40"/>
+      <c r="AL10" s="40"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="21"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="21"/>
+      <c r="AR10" s="21"/>
+      <c r="AS10" s="21"/>
+      <c r="AT10" s="21"/>
+      <c r="AU10" s="21"/>
+      <c r="AV10" s="22"/>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="40"/>
+      <c r="AY10" s="40"/>
+      <c r="AZ10" s="40"/>
+      <c r="BA10" s="40"/>
+      <c r="BB10" s="40"/>
+      <c r="BC10" s="40"/>
+      <c r="BD10" s="40"/>
+      <c r="BE10" s="13"/>
+    </row>
+    <row r="11" spans="1:57" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1778,8 +2312,35 @@
       <c r="Z11" s="15"/>
       <c r="AA11" s="15"/>
       <c r="AB11" s="16"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="32"/>
+      <c r="AO11" s="37"/>
+      <c r="AP11" s="41"/>
+      <c r="AQ11" s="37"/>
+      <c r="AR11" s="37"/>
+      <c r="AS11" s="37"/>
+      <c r="AT11" s="37"/>
+      <c r="AU11" s="37"/>
+      <c r="AV11" s="6"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="15"/>
+      <c r="AY11" s="15"/>
+      <c r="AZ11" s="15"/>
+      <c r="BA11" s="15"/>
+      <c r="BB11" s="15"/>
+      <c r="BC11" s="15"/>
+      <c r="BD11" s="15"/>
+      <c r="BE11" s="16"/>
+    </row>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1810,8 +2371,35 @@
       <c r="Z12" s="18"/>
       <c r="AA12" s="18"/>
       <c r="AB12" s="19"/>
-    </row>
-    <row r="13" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="33"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="8"/>
+      <c r="AV12" s="39"/>
+      <c r="AW12" s="17"/>
+      <c r="AX12" s="18"/>
+      <c r="AY12" s="18"/>
+      <c r="AZ12" s="18"/>
+      <c r="BA12" s="18"/>
+      <c r="BB12" s="18"/>
+      <c r="BC12" s="18"/>
+      <c r="BD12" s="18"/>
+      <c r="BE12" s="19"/>
+    </row>
+    <row r="13" spans="1:57" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1842,8 +2430,35 @@
       <c r="Z13" s="18"/>
       <c r="AA13" s="18"/>
       <c r="AB13" s="19"/>
-    </row>
-    <row r="14" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18"/>
+      <c r="AK13" s="18"/>
+      <c r="AL13" s="18"/>
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="42"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="33"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="39"/>
+      <c r="AW13" s="17"/>
+      <c r="AX13" s="18"/>
+      <c r="AY13" s="18"/>
+      <c r="AZ13" s="18"/>
+      <c r="BA13" s="18"/>
+      <c r="BB13" s="18"/>
+      <c r="BC13" s="18"/>
+      <c r="BD13" s="18"/>
+      <c r="BE13" s="19"/>
+    </row>
+    <row r="14" spans="1:57" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1874,8 +2489,35 @@
       <c r="Z14" s="18"/>
       <c r="AA14" s="18"/>
       <c r="AB14" s="19"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="18"/>
+      <c r="AL14" s="18"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="38"/>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="8"/>
+      <c r="AV14" s="39"/>
+      <c r="AW14" s="17"/>
+      <c r="AX14" s="18"/>
+      <c r="AY14" s="18"/>
+      <c r="AZ14" s="18"/>
+      <c r="BA14" s="18"/>
+      <c r="BB14" s="18"/>
+      <c r="BC14" s="18"/>
+      <c r="BD14" s="18"/>
+      <c r="BE14" s="19"/>
+    </row>
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1906,8 +2548,35 @@
       <c r="Z15" s="18"/>
       <c r="AA15" s="18"/>
       <c r="AB15" s="19"/>
-    </row>
-    <row r="16" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="18"/>
+      <c r="AJ15" s="18"/>
+      <c r="AK15" s="18"/>
+      <c r="AL15" s="18"/>
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="38"/>
+      <c r="AO15" s="8"/>
+      <c r="AP15" s="8"/>
+      <c r="AQ15" s="8"/>
+      <c r="AR15" s="8"/>
+      <c r="AS15" s="8"/>
+      <c r="AT15" s="8"/>
+      <c r="AU15" s="8"/>
+      <c r="AV15" s="39"/>
+      <c r="AW15" s="17"/>
+      <c r="AX15" s="18"/>
+      <c r="AY15" s="18"/>
+      <c r="AZ15" s="18"/>
+      <c r="BA15" s="18"/>
+      <c r="BB15" s="18"/>
+      <c r="BC15" s="18"/>
+      <c r="BD15" s="18"/>
+      <c r="BE15" s="19"/>
+    </row>
+    <row r="16" spans="1:57" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1938,8 +2607,35 @@
       <c r="Z16" s="18"/>
       <c r="AA16" s="18"/>
       <c r="AB16" s="19"/>
-    </row>
-    <row r="17" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="18"/>
+      <c r="AJ16" s="18"/>
+      <c r="AK16" s="18"/>
+      <c r="AL16" s="18"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="38"/>
+      <c r="AO16" s="8"/>
+      <c r="AP16" s="8"/>
+      <c r="AQ16" s="8"/>
+      <c r="AR16" s="8"/>
+      <c r="AS16" s="8"/>
+      <c r="AT16" s="8"/>
+      <c r="AU16" s="8"/>
+      <c r="AV16" s="39"/>
+      <c r="AW16" s="17"/>
+      <c r="AX16" s="18"/>
+      <c r="AY16" s="18"/>
+      <c r="AZ16" s="18"/>
+      <c r="BA16" s="18"/>
+      <c r="BB16" s="18"/>
+      <c r="BC16" s="18"/>
+      <c r="BD16" s="18"/>
+      <c r="BE16" s="19"/>
+    </row>
+    <row r="17" spans="1:57" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1970,8 +2666,35 @@
       <c r="Z17" s="18"/>
       <c r="AA17" s="18"/>
       <c r="AB17" s="19"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
+      <c r="AK17" s="18"/>
+      <c r="AL17" s="18"/>
+      <c r="AM17" s="19"/>
+      <c r="AN17" s="38"/>
+      <c r="AO17" s="8"/>
+      <c r="AP17" s="8"/>
+      <c r="AQ17" s="8"/>
+      <c r="AR17" s="8"/>
+      <c r="AS17" s="8"/>
+      <c r="AT17" s="8"/>
+      <c r="AU17" s="8"/>
+      <c r="AV17" s="39"/>
+      <c r="AW17" s="17"/>
+      <c r="AX17" s="18"/>
+      <c r="AY17" s="18"/>
+      <c r="AZ17" s="18"/>
+      <c r="BA17" s="18"/>
+      <c r="BB17" s="18"/>
+      <c r="BC17" s="18"/>
+      <c r="BD17" s="18"/>
+      <c r="BE17" s="19"/>
+    </row>
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2002,8 +2725,35 @@
       <c r="Z18" s="18"/>
       <c r="AA18" s="18"/>
       <c r="AB18" s="19"/>
-    </row>
-    <row r="19" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="19"/>
+      <c r="AN18" s="38"/>
+      <c r="AO18" s="8"/>
+      <c r="AP18" s="8"/>
+      <c r="AQ18" s="8"/>
+      <c r="AR18" s="8"/>
+      <c r="AS18" s="8"/>
+      <c r="AT18" s="8"/>
+      <c r="AU18" s="8"/>
+      <c r="AV18" s="39"/>
+      <c r="AW18" s="17"/>
+      <c r="AX18" s="18"/>
+      <c r="AY18" s="18"/>
+      <c r="AZ18" s="18"/>
+      <c r="BA18" s="18"/>
+      <c r="BB18" s="18"/>
+      <c r="BC18" s="18"/>
+      <c r="BD18" s="18"/>
+      <c r="BE18" s="19"/>
+    </row>
+    <row r="19" spans="1:57" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2034,8 +2784,35 @@
       <c r="Z19" s="21"/>
       <c r="AA19" s="21"/>
       <c r="AB19" s="22"/>
-    </row>
-    <row r="20" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="21"/>
+      <c r="AK19" s="21"/>
+      <c r="AL19" s="21"/>
+      <c r="AM19" s="22"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="40"/>
+      <c r="AP19" s="40"/>
+      <c r="AQ19" s="40"/>
+      <c r="AR19" s="40"/>
+      <c r="AS19" s="40"/>
+      <c r="AT19" s="40"/>
+      <c r="AU19" s="40"/>
+      <c r="AV19" s="13"/>
+      <c r="AW19" s="20"/>
+      <c r="AX19" s="21"/>
+      <c r="AY19" s="21"/>
+      <c r="AZ19" s="21"/>
+      <c r="BA19" s="21"/>
+      <c r="BB19" s="21"/>
+      <c r="BC19" s="21"/>
+      <c r="BD19" s="21"/>
+      <c r="BE19" s="22"/>
+    </row>
+    <row r="20" spans="1:57" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2066,8 +2843,35 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="6"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="37"/>
+      <c r="AK20" s="37"/>
+      <c r="AL20" s="37"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="14"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="15"/>
+      <c r="AT20" s="15"/>
+      <c r="AU20" s="15"/>
+      <c r="AV20" s="16"/>
+      <c r="AW20" s="32"/>
+      <c r="AX20" s="37"/>
+      <c r="AY20" s="41"/>
+      <c r="AZ20" s="37"/>
+      <c r="BA20" s="37"/>
+      <c r="BB20" s="37"/>
+      <c r="BC20" s="37"/>
+      <c r="BD20" s="37"/>
+      <c r="BE20" s="6"/>
+    </row>
+    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2098,8 +2902,35 @@
       <c r="Z21" s="7"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="9"/>
-    </row>
-    <row r="22" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="33"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="39"/>
+      <c r="AN21" s="17"/>
+      <c r="AO21" s="18"/>
+      <c r="AP21" s="18"/>
+      <c r="AQ21" s="18"/>
+      <c r="AR21" s="18"/>
+      <c r="AS21" s="18"/>
+      <c r="AT21" s="18"/>
+      <c r="AU21" s="18"/>
+      <c r="AV21" s="19"/>
+      <c r="AW21" s="38"/>
+      <c r="AX21" s="33"/>
+      <c r="AY21" s="8"/>
+      <c r="AZ21" s="8"/>
+      <c r="BA21" s="8"/>
+      <c r="BB21" s="8"/>
+      <c r="BC21" s="8"/>
+      <c r="BD21" s="8"/>
+      <c r="BE21" s="39"/>
+    </row>
+    <row r="22" spans="1:57" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2130,8 +2961,35 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="13"/>
-    </row>
-    <row r="23" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="33"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="39"/>
+      <c r="AN22" s="17"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="18"/>
+      <c r="AQ22" s="18"/>
+      <c r="AR22" s="18"/>
+      <c r="AS22" s="18"/>
+      <c r="AT22" s="18"/>
+      <c r="AU22" s="18"/>
+      <c r="AV22" s="19"/>
+      <c r="AW22" s="42"/>
+      <c r="AX22" s="8"/>
+      <c r="AY22" s="33"/>
+      <c r="AZ22" s="8"/>
+      <c r="BA22" s="8"/>
+      <c r="BB22" s="8"/>
+      <c r="BC22" s="8"/>
+      <c r="BD22" s="8"/>
+      <c r="BE22" s="39"/>
+    </row>
+    <row r="23" spans="1:57" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2162,8 +3020,35 @@
       <c r="Z23" s="14"/>
       <c r="AA23" s="15"/>
       <c r="AB23" s="16"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="39"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="18"/>
+      <c r="AP23" s="18"/>
+      <c r="AQ23" s="18"/>
+      <c r="AR23" s="18"/>
+      <c r="AS23" s="18"/>
+      <c r="AT23" s="18"/>
+      <c r="AU23" s="18"/>
+      <c r="AV23" s="19"/>
+      <c r="AW23" s="38"/>
+      <c r="AX23" s="8"/>
+      <c r="AY23" s="8"/>
+      <c r="AZ23" s="8"/>
+      <c r="BA23" s="8"/>
+      <c r="BB23" s="8"/>
+      <c r="BC23" s="8"/>
+      <c r="BD23" s="8"/>
+      <c r="BE23" s="39"/>
+    </row>
+    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2194,8 +3079,35 @@
       <c r="Z24" s="17"/>
       <c r="AA24" s="18"/>
       <c r="AB24" s="19"/>
-    </row>
-    <row r="25" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="39"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="18"/>
+      <c r="AP24" s="18"/>
+      <c r="AQ24" s="18"/>
+      <c r="AR24" s="18"/>
+      <c r="AS24" s="18"/>
+      <c r="AT24" s="18"/>
+      <c r="AU24" s="18"/>
+      <c r="AV24" s="19"/>
+      <c r="AW24" s="38"/>
+      <c r="AX24" s="8"/>
+      <c r="AY24" s="8"/>
+      <c r="AZ24" s="8"/>
+      <c r="BA24" s="8"/>
+      <c r="BB24" s="8"/>
+      <c r="BC24" s="8"/>
+      <c r="BD24" s="8"/>
+      <c r="BE24" s="39"/>
+    </row>
+    <row r="25" spans="1:57" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2226,8 +3138,35 @@
       <c r="Z25" s="20"/>
       <c r="AA25" s="21"/>
       <c r="AB25" s="22"/>
-    </row>
-    <row r="26" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="39"/>
+      <c r="AN25" s="17"/>
+      <c r="AO25" s="18"/>
+      <c r="AP25" s="18"/>
+      <c r="AQ25" s="18"/>
+      <c r="AR25" s="18"/>
+      <c r="AS25" s="18"/>
+      <c r="AT25" s="18"/>
+      <c r="AU25" s="18"/>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="38"/>
+      <c r="AX25" s="8"/>
+      <c r="AY25" s="8"/>
+      <c r="AZ25" s="8"/>
+      <c r="BA25" s="8"/>
+      <c r="BB25" s="8"/>
+      <c r="BC25" s="8"/>
+      <c r="BD25" s="8"/>
+      <c r="BE25" s="39"/>
+    </row>
+    <row r="26" spans="1:57" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2258,8 +3197,35 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="6"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AE26" s="38"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="39"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="18"/>
+      <c r="AP26" s="18"/>
+      <c r="AQ26" s="18"/>
+      <c r="AR26" s="18"/>
+      <c r="AS26" s="18"/>
+      <c r="AT26" s="18"/>
+      <c r="AU26" s="18"/>
+      <c r="AV26" s="19"/>
+      <c r="AW26" s="38"/>
+      <c r="AX26" s="8"/>
+      <c r="AY26" s="8"/>
+      <c r="AZ26" s="8"/>
+      <c r="BA26" s="8"/>
+      <c r="BB26" s="8"/>
+      <c r="BC26" s="8"/>
+      <c r="BD26" s="8"/>
+      <c r="BE26" s="39"/>
+    </row>
+    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2290,8 +3256,35 @@
       <c r="Z27" s="7"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="9"/>
-    </row>
-    <row r="28" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="39"/>
+      <c r="AN27" s="17"/>
+      <c r="AO27" s="18"/>
+      <c r="AP27" s="18"/>
+      <c r="AQ27" s="18"/>
+      <c r="AR27" s="18"/>
+      <c r="AS27" s="18"/>
+      <c r="AT27" s="18"/>
+      <c r="AU27" s="18"/>
+      <c r="AV27" s="19"/>
+      <c r="AW27" s="38"/>
+      <c r="AX27" s="8"/>
+      <c r="AY27" s="8"/>
+      <c r="AZ27" s="8"/>
+      <c r="BA27" s="8"/>
+      <c r="BB27" s="8"/>
+      <c r="BC27" s="8"/>
+      <c r="BD27" s="8"/>
+      <c r="BE27" s="39"/>
+    </row>
+    <row r="28" spans="1:57" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2322,8 +3315,35 @@
       <c r="Z28" s="11"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="13"/>
-    </row>
-    <row r="29" spans="1:28" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="40"/>
+      <c r="AG28" s="40"/>
+      <c r="AH28" s="40"/>
+      <c r="AI28" s="40"/>
+      <c r="AJ28" s="40"/>
+      <c r="AK28" s="40"/>
+      <c r="AL28" s="40"/>
+      <c r="AM28" s="13"/>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="21"/>
+      <c r="AP28" s="21"/>
+      <c r="AQ28" s="21"/>
+      <c r="AR28" s="21"/>
+      <c r="AS28" s="21"/>
+      <c r="AT28" s="21"/>
+      <c r="AU28" s="21"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="11"/>
+      <c r="AX28" s="40"/>
+      <c r="AY28" s="40"/>
+      <c r="AZ28" s="40"/>
+      <c r="BA28" s="40"/>
+      <c r="BB28" s="40"/>
+      <c r="BC28" s="40"/>
+      <c r="BD28" s="40"/>
+      <c r="BE28" s="13"/>
+    </row>
+    <row r="29" spans="1:57" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/usaco-contest/2021Feb/C/CounttheCows.xlsx
+++ b/usaco-contest/2021Feb/C/CounttheCows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\usaco-contest\2021Feb\C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BE5B5C-8287-4251-AAAD-FA063F47C0B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB87E5B-D581-422C-B1C2-A2688D20F2BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7000" yWindow="0" windowWidth="37010" windowHeight="18290" activeTab="2" xr2:uid="{A1B670E2-2F1D-420E-859E-64B4349BE0BA}"/>
+    <workbookView xWindow="9800" yWindow="0" windowWidth="37010" windowHeight="18290" activeTab="1" xr2:uid="{A1B670E2-2F1D-420E-859E-64B4349BE0BA}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -572,6 +572,60 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -598,16 +652,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>72119</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>97428</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>72393</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>126365</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99695</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95885</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -622,8 +676,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2266679" y="463188"/>
-          <a:ext cx="237126" cy="218802"/>
+          <a:off x="255273" y="643893"/>
+          <a:ext cx="758822" cy="732152"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -660,16 +714,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>78988</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>122276</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>103283</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>88282</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>120805</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>106456</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -684,8 +738,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1891061" y="3384008"/>
-          <a:ext cx="1640160" cy="1629395"/>
+          <a:off x="282577" y="1699371"/>
+          <a:ext cx="1779305" cy="1813673"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -717,16 +771,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>90236</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76868</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57826</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>75777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>111513</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>134744</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>115234</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106456</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -741,8 +795,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="267368" y="989263"/>
-          <a:ext cx="3741040" cy="3871218"/>
+          <a:off x="2388650" y="3482365"/>
+          <a:ext cx="953878" cy="927150"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -777,16 +831,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>114687</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>134743</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>86731</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>60140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>98049</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>125696</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>80869</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>61632</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -801,8 +855,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="295894" y="1765609"/>
-          <a:ext cx="1433021" cy="1440611"/>
+          <a:off x="2596849" y="777316"/>
+          <a:ext cx="173432" cy="180787"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -899,16 +953,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>74781</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>88756</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66498</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>93</xdr:col>
-      <xdr:colOff>111786</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>117769</xdr:rowOff>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>103502</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>96097</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -923,8 +977,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2443607" y="279256"/>
-          <a:ext cx="14614396" cy="15045383"/>
+          <a:off x="248715" y="1882907"/>
+          <a:ext cx="14614396" cy="14612755"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1332,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D85526-8EDF-4405-92FF-0835C9A1A112}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1391,15 +1445,15 @@
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="6"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="45"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -1420,19 +1474,19 @@
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
       <c r="J3" s="9"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="33">
+      <c r="M3" s="49"/>
+      <c r="N3" s="50">
         <v>1</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="8">
+      <c r="O3" s="51"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="50">
         <v>2</v>
       </c>
-      <c r="U3" s="39"/>
+      <c r="U3" s="51"/>
     </row>
     <row r="4" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -1453,15 +1507,15 @@
       <c r="H4" s="11"/>
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="13"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="57"/>
     </row>
     <row r="5" spans="1:21" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -1476,15 +1530,15 @@
       <c r="H5" s="14"/>
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="16"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="48"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -1499,17 +1553,17 @@
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
       <c r="J6" s="19"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="8">
+      <c r="M6" s="52"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="50">
         <v>3</v>
       </c>
-      <c r="R6" s="39"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="19"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="54"/>
     </row>
     <row r="7" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -1524,15 +1578,15 @@
       <c r="H7" s="20"/>
       <c r="I7" s="21"/>
       <c r="J7" s="22"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="22"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="60"/>
     </row>
     <row r="8" spans="1:21" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1547,15 +1601,15 @@
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
       <c r="J8" s="6"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="6"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="45"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1570,19 +1624,19 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
       <c r="J9" s="9"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="8">
+      <c r="M9" s="49"/>
+      <c r="N9" s="50">
         <v>4</v>
       </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="8">
+      <c r="O9" s="51"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="50">
         <v>5</v>
       </c>
-      <c r="U9" s="39"/>
+      <c r="U9" s="51"/>
     </row>
     <row r="10" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -1597,15 +1651,15 @@
       <c r="H10" s="11"/>
       <c r="I10" s="12"/>
       <c r="J10" s="13"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="13"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="57"/>
     </row>
     <row r="11" spans="1:21" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -1620,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B23B71-1DC1-4023-BDA5-AF5388257871}">
   <dimension ref="A1:BE29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA45" sqref="AA45"/>
+    <sheetView showGridLines="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/usaco-contest/2021Feb/C/CounttheCows.xlsx
+++ b/usaco-contest/2021Feb/C/CounttheCows.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\usaco-contest\2021Feb\C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\competitive-programming\usaco-contest\2021Feb\C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB87E5B-D581-422C-B1C2-A2688D20F2BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57666D6-0635-422E-A3B3-EB8A7EB22C37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9800" yWindow="0" windowWidth="37010" windowHeight="18290" activeTab="1" xr2:uid="{A1B670E2-2F1D-420E-859E-64B4349BE0BA}"/>
+    <workbookView xWindow="9795" yWindow="0" windowWidth="37005" windowHeight="18285" activeTab="2" xr2:uid="{A1B670E2-2F1D-420E-859E-64B4349BE0BA}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -652,78 +652,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>72393</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95253</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>109853</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>118569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>99695</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95885</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直接连接符 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26FFA43E-6DD1-4818-BF58-CB7C970F9B94}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="255273" y="643893"/>
-          <a:ext cx="758822" cy="732152"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="oval" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>103283</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>106456</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>96216</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -738,8 +676,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="282577" y="1699371"/>
-          <a:ext cx="1779305" cy="1813673"/>
+          <a:off x="1397370" y="1813362"/>
+          <a:ext cx="1825674" cy="1906025"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -771,16 +709,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>57826</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>75777</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>115234</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>106456</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>119594</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -795,8 +733,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2388650" y="3482365"/>
-          <a:ext cx="953878" cy="927150"/>
+          <a:off x="241756" y="660415"/>
+          <a:ext cx="977064" cy="970041"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -831,16 +769,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>86731</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>60140</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>80161</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>92985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>80869</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>61632</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>74300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101046</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -855,8 +793,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2596849" y="777316"/>
-          <a:ext cx="173432" cy="180787"/>
+          <a:off x="5782023" y="2733709"/>
+          <a:ext cx="178070" cy="191992"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -888,15 +826,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>84053</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>106614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -946,10 +884,265 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>78828</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>105104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>101926</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104685</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接连接符 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7601F33-2675-4C7E-A580-06438E372DFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10930759" y="1799897"/>
+          <a:ext cx="758822" cy="755012"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>3795</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>94547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>163791</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>99085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="右大括号 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B939E55D-840E-42A4-B1C4-E8AF197E4E68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19008581">
+          <a:off x="2210967" y="1040478"/>
+          <a:ext cx="1079652" cy="2638693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 49722"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22968</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66222</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>52350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="右大括号 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B41241A-77A1-45B1-99DD-8FEF34C4990A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19008581">
+          <a:off x="574761" y="167641"/>
+          <a:ext cx="1330771" cy="1389002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 49722"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>127409</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>170663</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>140501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="右大括号 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D08E623-CE35-49B2-B2D0-CE05B945442C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8125596">
+          <a:off x="1802495" y="753196"/>
+          <a:ext cx="1330771" cy="4281184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 44305"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1314,14 +1507,14 @@
       <selection activeCell="B2" sqref="B2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="2.33203125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="2.33203125" style="3"/>
+    <col min="1" max="1" width="2.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="2.375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="2.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -1332,7 +1525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1346,7 +1539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1360,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1374,7 +1567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1386,18 +1579,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D85526-8EDF-4405-92FF-0835C9A1A112}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="2.33203125" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="2.33203125" style="3"/>
+    <col min="1" max="1" width="2.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="2.375" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="2.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -1426,7 +1619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1455,7 +1648,7 @@
       <c r="T2" s="44"/>
       <c r="U2" s="45"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1488,7 +1681,7 @@
       </c>
       <c r="U3" s="51"/>
     </row>
-    <row r="4" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1517,7 +1710,7 @@
       <c r="T4" s="56"/>
       <c r="U4" s="57"/>
     </row>
-    <row r="5" spans="1:21" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1540,7 +1733,7 @@
       <c r="T5" s="47"/>
       <c r="U5" s="48"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1565,7 +1758,7 @@
       <c r="T6" s="53"/>
       <c r="U6" s="54"/>
     </row>
-    <row r="7" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1588,7 +1781,7 @@
       <c r="T7" s="59"/>
       <c r="U7" s="60"/>
     </row>
-    <row r="8" spans="1:21" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1611,7 +1804,7 @@
       <c r="T8" s="44"/>
       <c r="U8" s="45"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1638,7 +1831,7 @@
       </c>
       <c r="U9" s="51"/>
     </row>
-    <row r="10" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1661,1747 +1854,1749 @@
       <c r="T10" s="56"/>
       <c r="U10" s="57"/>
     </row>
-    <row r="11" spans="1:21" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="250" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B23B71-1DC1-4023-BDA5-AF5388257871}">
-  <dimension ref="A1:BE29"/>
+  <dimension ref="B2:BF30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="28" width="2.33203125" style="3" customWidth="1"/>
-    <col min="29" max="16384" width="2.33203125" style="3"/>
+    <col min="1" max="1" width="4.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="2.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="29" width="2.375" style="3" customWidth="1"/>
+    <col min="30" max="16384" width="2.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="2">
+    <row r="2" spans="2:58" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E2" s="2">
         <v>2</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F2" s="2">
         <v>3</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G2" s="2">
         <v>4</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H2" s="2">
         <v>5</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I2" s="2">
         <v>6</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J2" s="2">
         <v>7</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K2" s="2">
         <v>8</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L2" s="2">
         <v>9</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M2" s="2">
         <v>10</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N2" s="2">
         <v>11</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O2" s="2">
         <v>12</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P2" s="2">
         <v>13</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q2" s="2">
         <v>14</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R2" s="2">
         <v>15</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S2" s="2">
         <v>16</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T2" s="2">
         <v>17</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U2" s="2">
         <v>18</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V2" s="2">
         <v>19</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W2" s="2">
         <v>20</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X2" s="2">
         <v>21</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y2" s="2">
         <v>22</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z2" s="2">
         <v>23</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA2" s="2">
         <v>24</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB2" s="2">
         <v>25</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC2" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:57" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="3" spans="2:58" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="32">
+      <c r="C3" s="32">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D3" s="5">
         <v>0</v>
       </c>
-      <c r="D2" s="34">
+      <c r="E3" s="34">
         <v>1</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="6"/>
-      <c r="AE2" s="32">
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="6"/>
+      <c r="AF3" s="32">
         <v>1</v>
       </c>
-      <c r="AF2" s="37">
+      <c r="AG3" s="37">
         <v>0</v>
       </c>
-      <c r="AG2" s="41">
+      <c r="AH3" s="41">
         <v>1</v>
       </c>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="16"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="6"/>
-    </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="37"/>
+      <c r="AZ3" s="41"/>
+      <c r="BA3" s="37"/>
+      <c r="BB3" s="37"/>
+      <c r="BC3" s="37"/>
+      <c r="BD3" s="37"/>
+      <c r="BE3" s="37"/>
+      <c r="BF3" s="6"/>
+    </row>
+    <row r="4" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="C3" s="33">
+      <c r="D4" s="33">
         <v>2</v>
       </c>
-      <c r="D3" s="9">
+      <c r="E4" s="9">
         <v>0</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="9"/>
-      <c r="AE3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="33">
-        <v>2</v>
-      </c>
-      <c r="AG3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="17"/>
-      <c r="AO3" s="18"/>
-      <c r="AP3" s="18"/>
-      <c r="AQ3" s="18"/>
-      <c r="AR3" s="18"/>
-      <c r="AS3" s="18"/>
-      <c r="AT3" s="18"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="33"/>
-      <c r="AY3" s="8"/>
-      <c r="AZ3" s="8"/>
-      <c r="BA3" s="8"/>
-      <c r="BB3" s="8"/>
-      <c r="BC3" s="8"/>
-      <c r="BD3" s="8"/>
-      <c r="BE3" s="39"/>
-    </row>
-    <row r="4" spans="1:57" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="36">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0</v>
-      </c>
-      <c r="D4" s="35">
-        <v>3</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="17"/>
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="13"/>
-      <c r="AE4" s="42">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="8">
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="9"/>
+      <c r="AF4" s="38">
         <v>0</v>
       </c>
       <c r="AG4" s="33">
-        <v>3</v>
-      </c>
-      <c r="AH4" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>0</v>
+      </c>
       <c r="AI4" s="8"/>
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
       <c r="AL4" s="8"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="17"/>
-      <c r="AO4" s="18"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="17"/>
       <c r="AP4" s="18"/>
       <c r="AQ4" s="18"/>
       <c r="AR4" s="18"/>
       <c r="AS4" s="18"/>
       <c r="AT4" s="18"/>
       <c r="AU4" s="18"/>
-      <c r="AV4" s="19"/>
-      <c r="AW4" s="42"/>
-      <c r="AX4" s="8"/>
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="19"/>
+      <c r="AX4" s="38"/>
       <c r="AY4" s="33"/>
       <c r="AZ4" s="8"/>
       <c r="BA4" s="8"/>
       <c r="BB4" s="8"/>
       <c r="BC4" s="8"/>
       <c r="BD4" s="8"/>
-      <c r="BE4" s="39"/>
-    </row>
-    <row r="5" spans="1:57" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="39"/>
+    </row>
+    <row r="5" spans="2:58" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="36">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="35">
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="17"/>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="16"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="13"/>
+      <c r="AF5" s="42">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="33">
+        <v>3</v>
+      </c>
       <c r="AI5" s="8"/>
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
       <c r="AL5" s="8"/>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="17"/>
-      <c r="AO5" s="18"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="17"/>
       <c r="AP5" s="18"/>
       <c r="AQ5" s="18"/>
       <c r="AR5" s="18"/>
       <c r="AS5" s="18"/>
       <c r="AT5" s="18"/>
       <c r="AU5" s="18"/>
-      <c r="AV5" s="19"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="8"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="42"/>
       <c r="AY5" s="8"/>
-      <c r="AZ5" s="8"/>
+      <c r="AZ5" s="33"/>
       <c r="BA5" s="8"/>
       <c r="BB5" s="8"/>
       <c r="BC5" s="8"/>
       <c r="BD5" s="8"/>
-      <c r="BE5" s="39"/>
-    </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="39"/>
+    </row>
+    <row r="6" spans="2:58" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="19"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="8"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="16"/>
+      <c r="AF6" s="38"/>
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
       <c r="AJ6" s="8"/>
       <c r="AK6" s="8"/>
       <c r="AL6" s="8"/>
-      <c r="AM6" s="39"/>
-      <c r="AN6" s="17"/>
-      <c r="AO6" s="18"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="39"/>
+      <c r="AO6" s="17"/>
       <c r="AP6" s="18"/>
       <c r="AQ6" s="18"/>
       <c r="AR6" s="18"/>
       <c r="AS6" s="18"/>
       <c r="AT6" s="18"/>
       <c r="AU6" s="18"/>
-      <c r="AV6" s="19"/>
-      <c r="AW6" s="38"/>
-      <c r="AX6" s="8"/>
+      <c r="AV6" s="18"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="38"/>
       <c r="AY6" s="8"/>
       <c r="AZ6" s="8"/>
       <c r="BA6" s="8"/>
       <c r="BB6" s="8"/>
       <c r="BC6" s="8"/>
       <c r="BD6" s="8"/>
-      <c r="BE6" s="39"/>
-    </row>
-    <row r="7" spans="1:57" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="39"/>
+    </row>
+    <row r="7" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="17"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="22"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="8"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="19"/>
+      <c r="AF7" s="38"/>
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="8"/>
       <c r="AL7" s="8"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="17"/>
-      <c r="AO7" s="18"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="17"/>
       <c r="AP7" s="18"/>
       <c r="AQ7" s="18"/>
       <c r="AR7" s="18"/>
       <c r="AS7" s="18"/>
       <c r="AT7" s="18"/>
       <c r="AU7" s="18"/>
-      <c r="AV7" s="19"/>
-      <c r="AW7" s="38"/>
-      <c r="AX7" s="8"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="19"/>
+      <c r="AX7" s="38"/>
       <c r="AY7" s="8"/>
       <c r="AZ7" s="8"/>
       <c r="BA7" s="8"/>
       <c r="BB7" s="8"/>
       <c r="BC7" s="8"/>
       <c r="BD7" s="8"/>
-      <c r="BE7" s="39"/>
-    </row>
-    <row r="8" spans="1:57" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
+      <c r="BE7" s="8"/>
+      <c r="BF7" s="39"/>
+    </row>
+    <row r="8" spans="2:58" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="17"/>
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="6"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="8"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="22"/>
+      <c r="AF8" s="38"/>
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="39"/>
-      <c r="AN8" s="17"/>
-      <c r="AO8" s="18"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="39"/>
+      <c r="AO8" s="17"/>
       <c r="AP8" s="18"/>
       <c r="AQ8" s="18"/>
       <c r="AR8" s="18"/>
       <c r="AS8" s="18"/>
       <c r="AT8" s="18"/>
       <c r="AU8" s="18"/>
-      <c r="AV8" s="19"/>
-      <c r="AW8" s="38"/>
-      <c r="AX8" s="8"/>
+      <c r="AV8" s="18"/>
+      <c r="AW8" s="19"/>
+      <c r="AX8" s="38"/>
       <c r="AY8" s="8"/>
       <c r="AZ8" s="8"/>
       <c r="BA8" s="8"/>
       <c r="BB8" s="8"/>
       <c r="BC8" s="8"/>
       <c r="BD8" s="8"/>
-      <c r="BE8" s="39"/>
-    </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
+      <c r="BE8" s="8"/>
+      <c r="BF8" s="39"/>
+    </row>
+    <row r="9" spans="2:58" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="17"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="9"/>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="8"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="6"/>
+      <c r="AF9" s="38"/>
       <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8"/>
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
-      <c r="AM9" s="39"/>
-      <c r="AN9" s="17"/>
-      <c r="AO9" s="18"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="39"/>
+      <c r="AO9" s="17"/>
       <c r="AP9" s="18"/>
       <c r="AQ9" s="18"/>
       <c r="AR9" s="18"/>
       <c r="AS9" s="18"/>
       <c r="AT9" s="18"/>
       <c r="AU9" s="18"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="38"/>
-      <c r="AX9" s="8"/>
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="38"/>
       <c r="AY9" s="8"/>
       <c r="AZ9" s="8"/>
       <c r="BA9" s="8"/>
       <c r="BB9" s="8"/>
       <c r="BC9" s="8"/>
       <c r="BD9" s="8"/>
-      <c r="BE9" s="39"/>
-    </row>
-    <row r="10" spans="1:57" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="BE9" s="8"/>
+      <c r="BF9" s="39"/>
+    </row>
+    <row r="10" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="9"/>
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="39"/>
+      <c r="AO10" s="17"/>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="18"/>
+      <c r="AR10" s="18"/>
+      <c r="AS10" s="18"/>
+      <c r="AT10" s="18"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="18"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="38"/>
+      <c r="AY10" s="8"/>
+      <c r="AZ10" s="8"/>
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="8"/>
+      <c r="BC10" s="8"/>
+      <c r="BD10" s="8"/>
+      <c r="BE10" s="8"/>
+      <c r="BF10" s="39"/>
+    </row>
+    <row r="11" spans="2:58" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="13"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="40"/>
-      <c r="AG10" s="40"/>
-      <c r="AH10" s="40"/>
-      <c r="AI10" s="40"/>
-      <c r="AJ10" s="40"/>
-      <c r="AK10" s="40"/>
-      <c r="AL10" s="40"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="20"/>
-      <c r="AO10" s="21"/>
-      <c r="AP10" s="21"/>
-      <c r="AQ10" s="21"/>
-      <c r="AR10" s="21"/>
-      <c r="AS10" s="21"/>
-      <c r="AT10" s="21"/>
-      <c r="AU10" s="21"/>
-      <c r="AV10" s="22"/>
-      <c r="AW10" s="11"/>
-      <c r="AX10" s="40"/>
-      <c r="AY10" s="40"/>
-      <c r="AZ10" s="40"/>
-      <c r="BA10" s="40"/>
-      <c r="BB10" s="40"/>
-      <c r="BC10" s="40"/>
-      <c r="BD10" s="40"/>
-      <c r="BE10" s="13"/>
-    </row>
-    <row r="11" spans="1:57" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="13"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="40"/>
+      <c r="AH11" s="40"/>
+      <c r="AI11" s="40"/>
+      <c r="AJ11" s="40"/>
+      <c r="AK11" s="40"/>
+      <c r="AL11" s="40"/>
+      <c r="AM11" s="40"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="21"/>
+      <c r="AQ11" s="21"/>
+      <c r="AR11" s="21"/>
+      <c r="AS11" s="21"/>
+      <c r="AT11" s="21"/>
+      <c r="AU11" s="21"/>
+      <c r="AV11" s="21"/>
+      <c r="AW11" s="22"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="40"/>
+      <c r="AZ11" s="40"/>
+      <c r="BA11" s="40"/>
+      <c r="BB11" s="40"/>
+      <c r="BC11" s="40"/>
+      <c r="BD11" s="40"/>
+      <c r="BE11" s="40"/>
+      <c r="BF11" s="13"/>
+    </row>
+    <row r="12" spans="2:58" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="16"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="15"/>
-      <c r="AL11" s="15"/>
-      <c r="AM11" s="16"/>
-      <c r="AN11" s="32"/>
-      <c r="AO11" s="37"/>
-      <c r="AP11" s="41"/>
-      <c r="AQ11" s="37"/>
-      <c r="AR11" s="37"/>
-      <c r="AS11" s="37"/>
-      <c r="AT11" s="37"/>
-      <c r="AU11" s="37"/>
-      <c r="AV11" s="6"/>
-      <c r="AW11" s="14"/>
-      <c r="AX11" s="15"/>
-      <c r="AY11" s="15"/>
-      <c r="AZ11" s="15"/>
-      <c r="BA11" s="15"/>
-      <c r="BB11" s="15"/>
-      <c r="BC11" s="15"/>
-      <c r="BD11" s="15"/>
-      <c r="BE11" s="16"/>
-    </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="16"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="32"/>
+      <c r="AP12" s="37"/>
+      <c r="AQ12" s="41"/>
+      <c r="AR12" s="37"/>
+      <c r="AS12" s="37"/>
+      <c r="AT12" s="37"/>
+      <c r="AU12" s="37"/>
+      <c r="AV12" s="37"/>
+      <c r="AW12" s="6"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="15"/>
+      <c r="AZ12" s="15"/>
+      <c r="BA12" s="15"/>
+      <c r="BB12" s="15"/>
+      <c r="BC12" s="15"/>
+      <c r="BD12" s="15"/>
+      <c r="BE12" s="15"/>
+      <c r="BF12" s="16"/>
+    </row>
+    <row r="13" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="19"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
-      <c r="AJ12" s="18"/>
-      <c r="AK12" s="18"/>
-      <c r="AL12" s="18"/>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="38"/>
-      <c r="AO12" s="33"/>
-      <c r="AP12" s="8"/>
-      <c r="AQ12" s="8"/>
-      <c r="AR12" s="8"/>
-      <c r="AS12" s="8"/>
-      <c r="AT12" s="8"/>
-      <c r="AU12" s="8"/>
-      <c r="AV12" s="39"/>
-      <c r="AW12" s="17"/>
-      <c r="AX12" s="18"/>
-      <c r="AY12" s="18"/>
-      <c r="AZ12" s="18"/>
-      <c r="BA12" s="18"/>
-      <c r="BB12" s="18"/>
-      <c r="BC12" s="18"/>
-      <c r="BD12" s="18"/>
-      <c r="BE12" s="19"/>
-    </row>
-    <row r="13" spans="1:57" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="10"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="9"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="18"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="17"/>
       <c r="V13" s="18"/>
       <c r="W13" s="18"/>
       <c r="X13" s="18"/>
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
       <c r="AA13" s="18"/>
-      <c r="AB13" s="19"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="19"/>
+      <c r="AF13" s="17"/>
       <c r="AG13" s="18"/>
       <c r="AH13" s="18"/>
       <c r="AI13" s="18"/>
       <c r="AJ13" s="18"/>
       <c r="AK13" s="18"/>
       <c r="AL13" s="18"/>
-      <c r="AM13" s="19"/>
-      <c r="AN13" s="42"/>
-      <c r="AO13" s="8"/>
+      <c r="AM13" s="18"/>
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="38"/>
       <c r="AP13" s="33"/>
       <c r="AQ13" s="8"/>
       <c r="AR13" s="8"/>
       <c r="AS13" s="8"/>
       <c r="AT13" s="8"/>
       <c r="AU13" s="8"/>
-      <c r="AV13" s="39"/>
-      <c r="AW13" s="17"/>
-      <c r="AX13" s="18"/>
+      <c r="AV13" s="8"/>
+      <c r="AW13" s="39"/>
+      <c r="AX13" s="17"/>
       <c r="AY13" s="18"/>
       <c r="AZ13" s="18"/>
       <c r="BA13" s="18"/>
       <c r="BB13" s="18"/>
       <c r="BC13" s="18"/>
       <c r="BD13" s="18"/>
-      <c r="BE13" s="19"/>
-    </row>
-    <row r="14" spans="1:57" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="BE13" s="18"/>
+      <c r="BF13" s="19"/>
+    </row>
+    <row r="14" spans="2:58" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="17"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="6"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="18"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="17"/>
       <c r="V14" s="18"/>
       <c r="W14" s="18"/>
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
       <c r="Z14" s="18"/>
       <c r="AA14" s="18"/>
-      <c r="AB14" s="19"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="19"/>
+      <c r="AF14" s="17"/>
       <c r="AG14" s="18"/>
       <c r="AH14" s="18"/>
       <c r="AI14" s="18"/>
       <c r="AJ14" s="18"/>
       <c r="AK14" s="18"/>
       <c r="AL14" s="18"/>
-      <c r="AM14" s="19"/>
-      <c r="AN14" s="38"/>
-      <c r="AO14" s="8"/>
+      <c r="AM14" s="18"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="42"/>
       <c r="AP14" s="8"/>
-      <c r="AQ14" s="8"/>
+      <c r="AQ14" s="33"/>
       <c r="AR14" s="8"/>
       <c r="AS14" s="8"/>
       <c r="AT14" s="8"/>
       <c r="AU14" s="8"/>
-      <c r="AV14" s="39"/>
-      <c r="AW14" s="17"/>
-      <c r="AX14" s="18"/>
+      <c r="AV14" s="8"/>
+      <c r="AW14" s="39"/>
+      <c r="AX14" s="17"/>
       <c r="AY14" s="18"/>
       <c r="AZ14" s="18"/>
       <c r="BA14" s="18"/>
       <c r="BB14" s="18"/>
       <c r="BC14" s="18"/>
       <c r="BD14" s="18"/>
-      <c r="BE14" s="19"/>
-    </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="BE14" s="18"/>
+      <c r="BF14" s="19"/>
+    </row>
+    <row r="15" spans="2:58" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="10"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="7"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="6"/>
       <c r="R15" s="10"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="18"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="17"/>
       <c r="V15" s="18"/>
       <c r="W15" s="18"/>
       <c r="X15" s="18"/>
       <c r="Y15" s="18"/>
       <c r="Z15" s="18"/>
       <c r="AA15" s="18"/>
-      <c r="AB15" s="19"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="19"/>
+      <c r="AF15" s="17"/>
       <c r="AG15" s="18"/>
       <c r="AH15" s="18"/>
       <c r="AI15" s="18"/>
       <c r="AJ15" s="18"/>
       <c r="AK15" s="18"/>
       <c r="AL15" s="18"/>
-      <c r="AM15" s="19"/>
-      <c r="AN15" s="38"/>
-      <c r="AO15" s="8"/>
+      <c r="AM15" s="18"/>
+      <c r="AN15" s="19"/>
+      <c r="AO15" s="38"/>
       <c r="AP15" s="8"/>
       <c r="AQ15" s="8"/>
       <c r="AR15" s="8"/>
       <c r="AS15" s="8"/>
       <c r="AT15" s="8"/>
       <c r="AU15" s="8"/>
-      <c r="AV15" s="39"/>
-      <c r="AW15" s="17"/>
-      <c r="AX15" s="18"/>
+      <c r="AV15" s="8"/>
+      <c r="AW15" s="39"/>
+      <c r="AX15" s="17"/>
       <c r="AY15" s="18"/>
       <c r="AZ15" s="18"/>
       <c r="BA15" s="18"/>
       <c r="BB15" s="18"/>
       <c r="BC15" s="18"/>
       <c r="BD15" s="18"/>
-      <c r="BE15" s="19"/>
-    </row>
-    <row r="16" spans="1:57" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="BE15" s="18"/>
+      <c r="BF15" s="19"/>
+    </row>
+    <row r="16" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="17"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="10"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="7"/>
       <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
       <c r="R16" s="10"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="18"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="17"/>
       <c r="V16" s="18"/>
       <c r="W16" s="18"/>
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
       <c r="AA16" s="18"/>
-      <c r="AB16" s="19"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="19"/>
+      <c r="AF16" s="17"/>
       <c r="AG16" s="18"/>
       <c r="AH16" s="18"/>
       <c r="AI16" s="18"/>
       <c r="AJ16" s="18"/>
       <c r="AK16" s="18"/>
       <c r="AL16" s="18"/>
-      <c r="AM16" s="19"/>
-      <c r="AN16" s="38"/>
-      <c r="AO16" s="8"/>
+      <c r="AM16" s="18"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="38"/>
       <c r="AP16" s="8"/>
       <c r="AQ16" s="8"/>
       <c r="AR16" s="8"/>
       <c r="AS16" s="8"/>
       <c r="AT16" s="8"/>
       <c r="AU16" s="8"/>
-      <c r="AV16" s="39"/>
-      <c r="AW16" s="17"/>
-      <c r="AX16" s="18"/>
+      <c r="AV16" s="8"/>
+      <c r="AW16" s="39"/>
+      <c r="AX16" s="17"/>
       <c r="AY16" s="18"/>
       <c r="AZ16" s="18"/>
       <c r="BA16" s="18"/>
       <c r="BB16" s="18"/>
       <c r="BC16" s="18"/>
       <c r="BD16" s="18"/>
-      <c r="BE16" s="19"/>
-    </row>
-    <row r="17" spans="1:57" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="BE16" s="18"/>
+      <c r="BF16" s="19"/>
+    </row>
+    <row r="17" spans="2:58" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="17"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="6"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="10"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="18"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="17"/>
       <c r="V17" s="18"/>
       <c r="W17" s="18"/>
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
       <c r="AA17" s="18"/>
-      <c r="AB17" s="19"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="19"/>
+      <c r="AF17" s="17"/>
       <c r="AG17" s="18"/>
       <c r="AH17" s="18"/>
       <c r="AI17" s="18"/>
       <c r="AJ17" s="18"/>
       <c r="AK17" s="18"/>
       <c r="AL17" s="18"/>
-      <c r="AM17" s="19"/>
-      <c r="AN17" s="38"/>
-      <c r="AO17" s="8"/>
+      <c r="AM17" s="18"/>
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="38"/>
       <c r="AP17" s="8"/>
       <c r="AQ17" s="8"/>
       <c r="AR17" s="8"/>
       <c r="AS17" s="8"/>
       <c r="AT17" s="8"/>
       <c r="AU17" s="8"/>
-      <c r="AV17" s="39"/>
-      <c r="AW17" s="17"/>
-      <c r="AX17" s="18"/>
+      <c r="AV17" s="8"/>
+      <c r="AW17" s="39"/>
+      <c r="AX17" s="17"/>
       <c r="AY17" s="18"/>
       <c r="AZ17" s="18"/>
       <c r="BA17" s="18"/>
       <c r="BB17" s="18"/>
       <c r="BC17" s="18"/>
       <c r="BD17" s="18"/>
-      <c r="BE17" s="19"/>
-    </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
+      <c r="BE17" s="18"/>
+      <c r="BF17" s="19"/>
+    </row>
+    <row r="18" spans="2:58" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="10"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="6"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="18"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="17"/>
       <c r="V18" s="18"/>
       <c r="W18" s="18"/>
       <c r="X18" s="18"/>
       <c r="Y18" s="18"/>
       <c r="Z18" s="18"/>
       <c r="AA18" s="18"/>
-      <c r="AB18" s="19"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="19"/>
+      <c r="AF18" s="17"/>
       <c r="AG18" s="18"/>
       <c r="AH18" s="18"/>
       <c r="AI18" s="18"/>
       <c r="AJ18" s="18"/>
       <c r="AK18" s="18"/>
       <c r="AL18" s="18"/>
-      <c r="AM18" s="19"/>
-      <c r="AN18" s="38"/>
-      <c r="AO18" s="8"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="38"/>
       <c r="AP18" s="8"/>
       <c r="AQ18" s="8"/>
       <c r="AR18" s="8"/>
       <c r="AS18" s="8"/>
       <c r="AT18" s="8"/>
       <c r="AU18" s="8"/>
-      <c r="AV18" s="39"/>
-      <c r="AW18" s="17"/>
-      <c r="AX18" s="18"/>
+      <c r="AV18" s="8"/>
+      <c r="AW18" s="39"/>
+      <c r="AX18" s="17"/>
       <c r="AY18" s="18"/>
       <c r="AZ18" s="18"/>
       <c r="BA18" s="18"/>
       <c r="BB18" s="18"/>
       <c r="BC18" s="18"/>
       <c r="BD18" s="18"/>
-      <c r="BE18" s="19"/>
-    </row>
-    <row r="19" spans="1:57" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="BE18" s="18"/>
+      <c r="BF18" s="19"/>
+    </row>
+    <row r="19" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>16</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="19"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="38"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="8"/>
+      <c r="AR19" s="8"/>
+      <c r="AS19" s="8"/>
+      <c r="AT19" s="8"/>
+      <c r="AU19" s="8"/>
+      <c r="AV19" s="8"/>
+      <c r="AW19" s="39"/>
+      <c r="AX19" s="17"/>
+      <c r="AY19" s="18"/>
+      <c r="AZ19" s="18"/>
+      <c r="BA19" s="18"/>
+      <c r="BB19" s="18"/>
+      <c r="BC19" s="18"/>
+      <c r="BD19" s="18"/>
+      <c r="BE19" s="18"/>
+      <c r="BF19" s="19"/>
+    </row>
+    <row r="20" spans="2:58" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="22"/>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="21"/>
-      <c r="AH19" s="21"/>
-      <c r="AI19" s="21"/>
-      <c r="AJ19" s="21"/>
-      <c r="AK19" s="21"/>
-      <c r="AL19" s="21"/>
-      <c r="AM19" s="22"/>
-      <c r="AN19" s="11"/>
-      <c r="AO19" s="40"/>
-      <c r="AP19" s="40"/>
-      <c r="AQ19" s="40"/>
-      <c r="AR19" s="40"/>
-      <c r="AS19" s="40"/>
-      <c r="AT19" s="40"/>
-      <c r="AU19" s="40"/>
-      <c r="AV19" s="13"/>
-      <c r="AW19" s="20"/>
-      <c r="AX19" s="21"/>
-      <c r="AY19" s="21"/>
-      <c r="AZ19" s="21"/>
-      <c r="BA19" s="21"/>
-      <c r="BB19" s="21"/>
-      <c r="BC19" s="21"/>
-      <c r="BD19" s="21"/>
-      <c r="BE19" s="22"/>
-    </row>
-    <row r="20" spans="1:57" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="22"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="21"/>
+      <c r="AK20" s="21"/>
+      <c r="AL20" s="21"/>
+      <c r="AM20" s="21"/>
+      <c r="AN20" s="22"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="40"/>
+      <c r="AQ20" s="40"/>
+      <c r="AR20" s="40"/>
+      <c r="AS20" s="40"/>
+      <c r="AT20" s="40"/>
+      <c r="AU20" s="40"/>
+      <c r="AV20" s="40"/>
+      <c r="AW20" s="13"/>
+      <c r="AX20" s="20"/>
+      <c r="AY20" s="21"/>
+      <c r="AZ20" s="21"/>
+      <c r="BA20" s="21"/>
+      <c r="BB20" s="21"/>
+      <c r="BC20" s="21"/>
+      <c r="BD20" s="21"/>
+      <c r="BE20" s="21"/>
+      <c r="BF20" s="22"/>
+    </row>
+    <row r="21" spans="2:58" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="6"/>
-      <c r="AE20" s="32"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="41"/>
-      <c r="AH20" s="37"/>
-      <c r="AI20" s="37"/>
-      <c r="AJ20" s="37"/>
-      <c r="AK20" s="37"/>
-      <c r="AL20" s="37"/>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="14"/>
-      <c r="AO20" s="15"/>
-      <c r="AP20" s="15"/>
-      <c r="AQ20" s="15"/>
-      <c r="AR20" s="15"/>
-      <c r="AS20" s="15"/>
-      <c r="AT20" s="15"/>
-      <c r="AU20" s="15"/>
-      <c r="AV20" s="16"/>
-      <c r="AW20" s="32"/>
-      <c r="AX20" s="37"/>
-      <c r="AY20" s="41"/>
-      <c r="AZ20" s="37"/>
-      <c r="BA20" s="37"/>
-      <c r="BB20" s="37"/>
-      <c r="BC20" s="37"/>
-      <c r="BD20" s="37"/>
-      <c r="BE20" s="6"/>
-    </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="6"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="37"/>
+      <c r="AJ21" s="37"/>
+      <c r="AK21" s="37"/>
+      <c r="AL21" s="37"/>
+      <c r="AM21" s="37"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="15"/>
+      <c r="AQ21" s="15"/>
+      <c r="AR21" s="15"/>
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="15"/>
+      <c r="AU21" s="15"/>
+      <c r="AV21" s="15"/>
+      <c r="AW21" s="16"/>
+      <c r="AX21" s="32"/>
+      <c r="AY21" s="37"/>
+      <c r="AZ21" s="41"/>
+      <c r="BA21" s="37"/>
+      <c r="BB21" s="37"/>
+      <c r="BC21" s="37"/>
+      <c r="BD21" s="37"/>
+      <c r="BE21" s="37"/>
+      <c r="BF21" s="6"/>
+    </row>
+    <row r="22" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="9"/>
-      <c r="AE21" s="38"/>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="8"/>
-      <c r="AK21" s="8"/>
-      <c r="AL21" s="8"/>
-      <c r="AM21" s="39"/>
-      <c r="AN21" s="17"/>
-      <c r="AO21" s="18"/>
-      <c r="AP21" s="18"/>
-      <c r="AQ21" s="18"/>
-      <c r="AR21" s="18"/>
-      <c r="AS21" s="18"/>
-      <c r="AT21" s="18"/>
-      <c r="AU21" s="18"/>
-      <c r="AV21" s="19"/>
-      <c r="AW21" s="38"/>
-      <c r="AX21" s="33"/>
-      <c r="AY21" s="8"/>
-      <c r="AZ21" s="8"/>
-      <c r="BA21" s="8"/>
-      <c r="BB21" s="8"/>
-      <c r="BC21" s="8"/>
-      <c r="BD21" s="8"/>
-      <c r="BE21" s="39"/>
-    </row>
-    <row r="22" spans="1:57" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="18"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="17"/>
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="13"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="8"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="9"/>
+      <c r="AF22" s="38"/>
       <c r="AG22" s="33"/>
       <c r="AH22" s="8"/>
       <c r="AI22" s="8"/>
       <c r="AJ22" s="8"/>
       <c r="AK22" s="8"/>
       <c r="AL22" s="8"/>
-      <c r="AM22" s="39"/>
-      <c r="AN22" s="17"/>
-      <c r="AO22" s="18"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="39"/>
+      <c r="AO22" s="17"/>
       <c r="AP22" s="18"/>
       <c r="AQ22" s="18"/>
       <c r="AR22" s="18"/>
       <c r="AS22" s="18"/>
       <c r="AT22" s="18"/>
       <c r="AU22" s="18"/>
-      <c r="AV22" s="19"/>
-      <c r="AW22" s="42"/>
-      <c r="AX22" s="8"/>
+      <c r="AV22" s="18"/>
+      <c r="AW22" s="19"/>
+      <c r="AX22" s="38"/>
       <c r="AY22" s="33"/>
       <c r="AZ22" s="8"/>
       <c r="BA22" s="8"/>
       <c r="BB22" s="8"/>
       <c r="BC22" s="8"/>
       <c r="BD22" s="8"/>
-      <c r="BE22" s="39"/>
-    </row>
-    <row r="23" spans="1:57" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="18"/>
+      <c r="BE22" s="8"/>
+      <c r="BF22" s="39"/>
+    </row>
+    <row r="23" spans="2:58" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>20</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="17"/>
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="16"/>
-      <c r="AE23" s="38"/>
-      <c r="AF23" s="8"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="13"/>
+      <c r="AF23" s="42"/>
       <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
+      <c r="AH23" s="33"/>
       <c r="AI23" s="8"/>
       <c r="AJ23" s="8"/>
       <c r="AK23" s="8"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="39"/>
-      <c r="AN23" s="17"/>
-      <c r="AO23" s="18"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="39"/>
+      <c r="AO23" s="17"/>
       <c r="AP23" s="18"/>
       <c r="AQ23" s="18"/>
       <c r="AR23" s="18"/>
       <c r="AS23" s="18"/>
       <c r="AT23" s="18"/>
       <c r="AU23" s="18"/>
-      <c r="AV23" s="19"/>
-      <c r="AW23" s="38"/>
-      <c r="AX23" s="8"/>
+      <c r="AV23" s="18"/>
+      <c r="AW23" s="19"/>
+      <c r="AX23" s="42"/>
       <c r="AY23" s="8"/>
-      <c r="AZ23" s="8"/>
+      <c r="AZ23" s="33"/>
       <c r="BA23" s="8"/>
       <c r="BB23" s="8"/>
       <c r="BC23" s="8"/>
       <c r="BD23" s="8"/>
-      <c r="BE23" s="39"/>
-    </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="18"/>
+      <c r="BE23" s="8"/>
+      <c r="BF23" s="39"/>
+    </row>
+    <row r="24" spans="2:58" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>21</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="17"/>
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="19"/>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="8"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="16"/>
+      <c r="AF24" s="38"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
       <c r="AI24" s="8"/>
       <c r="AJ24" s="8"/>
       <c r="AK24" s="8"/>
       <c r="AL24" s="8"/>
-      <c r="AM24" s="39"/>
-      <c r="AN24" s="17"/>
-      <c r="AO24" s="18"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="39"/>
+      <c r="AO24" s="17"/>
       <c r="AP24" s="18"/>
       <c r="AQ24" s="18"/>
       <c r="AR24" s="18"/>
       <c r="AS24" s="18"/>
       <c r="AT24" s="18"/>
       <c r="AU24" s="18"/>
-      <c r="AV24" s="19"/>
-      <c r="AW24" s="38"/>
-      <c r="AX24" s="8"/>
+      <c r="AV24" s="18"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="38"/>
       <c r="AY24" s="8"/>
       <c r="AZ24" s="8"/>
       <c r="BA24" s="8"/>
       <c r="BB24" s="8"/>
       <c r="BC24" s="8"/>
       <c r="BD24" s="8"/>
-      <c r="BE24" s="39"/>
-    </row>
-    <row r="25" spans="1:57" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="18"/>
+      <c r="BE24" s="8"/>
+      <c r="BF24" s="39"/>
+    </row>
+    <row r="25" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>22</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="17"/>
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
       <c r="R25" s="18"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="22"/>
-      <c r="AE25" s="38"/>
-      <c r="AF25" s="8"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="19"/>
+      <c r="AF25" s="38"/>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
       <c r="AI25" s="8"/>
       <c r="AJ25" s="8"/>
       <c r="AK25" s="8"/>
       <c r="AL25" s="8"/>
-      <c r="AM25" s="39"/>
-      <c r="AN25" s="17"/>
-      <c r="AO25" s="18"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="17"/>
       <c r="AP25" s="18"/>
       <c r="AQ25" s="18"/>
       <c r="AR25" s="18"/>
       <c r="AS25" s="18"/>
       <c r="AT25" s="18"/>
       <c r="AU25" s="18"/>
-      <c r="AV25" s="19"/>
-      <c r="AW25" s="38"/>
-      <c r="AX25" s="8"/>
+      <c r="AV25" s="18"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="38"/>
       <c r="AY25" s="8"/>
       <c r="AZ25" s="8"/>
       <c r="BA25" s="8"/>
       <c r="BB25" s="8"/>
       <c r="BC25" s="8"/>
       <c r="BD25" s="8"/>
-      <c r="BE25" s="39"/>
-    </row>
-    <row r="26" spans="1:57" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="18"/>
+      <c r="BE25" s="8"/>
+      <c r="BF25" s="39"/>
+    </row>
+    <row r="26" spans="2:58" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>23</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="17"/>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
       <c r="R26" s="18"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="6"/>
-      <c r="AE26" s="38"/>
-      <c r="AF26" s="8"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="22"/>
+      <c r="AF26" s="38"/>
       <c r="AG26" s="8"/>
       <c r="AH26" s="8"/>
       <c r="AI26" s="8"/>
       <c r="AJ26" s="8"/>
       <c r="AK26" s="8"/>
       <c r="AL26" s="8"/>
-      <c r="AM26" s="39"/>
-      <c r="AN26" s="17"/>
-      <c r="AO26" s="18"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="39"/>
+      <c r="AO26" s="17"/>
       <c r="AP26" s="18"/>
       <c r="AQ26" s="18"/>
       <c r="AR26" s="18"/>
       <c r="AS26" s="18"/>
       <c r="AT26" s="18"/>
       <c r="AU26" s="18"/>
-      <c r="AV26" s="19"/>
-      <c r="AW26" s="38"/>
-      <c r="AX26" s="8"/>
+      <c r="AV26" s="18"/>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="38"/>
       <c r="AY26" s="8"/>
       <c r="AZ26" s="8"/>
       <c r="BA26" s="8"/>
       <c r="BB26" s="8"/>
       <c r="BC26" s="8"/>
       <c r="BD26" s="8"/>
-      <c r="BE26" s="39"/>
-    </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="18"/>
+      <c r="BE26" s="8"/>
+      <c r="BF26" s="39"/>
+    </row>
+    <row r="27" spans="2:58" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>24</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="17"/>
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
       <c r="R27" s="18"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="9"/>
-      <c r="AE27" s="38"/>
-      <c r="AF27" s="8"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="6"/>
+      <c r="AF27" s="38"/>
       <c r="AG27" s="8"/>
       <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
       <c r="AJ27" s="8"/>
       <c r="AK27" s="8"/>
       <c r="AL27" s="8"/>
-      <c r="AM27" s="39"/>
-      <c r="AN27" s="17"/>
-      <c r="AO27" s="18"/>
+      <c r="AM27" s="8"/>
+      <c r="AN27" s="39"/>
+      <c r="AO27" s="17"/>
       <c r="AP27" s="18"/>
       <c r="AQ27" s="18"/>
       <c r="AR27" s="18"/>
       <c r="AS27" s="18"/>
       <c r="AT27" s="18"/>
       <c r="AU27" s="18"/>
-      <c r="AV27" s="19"/>
-      <c r="AW27" s="38"/>
-      <c r="AX27" s="8"/>
+      <c r="AV27" s="18"/>
+      <c r="AW27" s="19"/>
+      <c r="AX27" s="38"/>
       <c r="AY27" s="8"/>
       <c r="AZ27" s="8"/>
       <c r="BA27" s="8"/>
       <c r="BB27" s="8"/>
       <c r="BC27" s="8"/>
       <c r="BD27" s="8"/>
-      <c r="BE27" s="39"/>
-    </row>
-    <row r="28" spans="1:57" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+      <c r="BE27" s="8"/>
+      <c r="BF27" s="39"/>
+    </row>
+    <row r="28" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>25</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="9"/>
+      <c r="AF28" s="38"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="8"/>
+      <c r="AN28" s="39"/>
+      <c r="AO28" s="17"/>
+      <c r="AP28" s="18"/>
+      <c r="AQ28" s="18"/>
+      <c r="AR28" s="18"/>
+      <c r="AS28" s="18"/>
+      <c r="AT28" s="18"/>
+      <c r="AU28" s="18"/>
+      <c r="AV28" s="18"/>
+      <c r="AW28" s="19"/>
+      <c r="AX28" s="38"/>
+      <c r="AY28" s="8"/>
+      <c r="AZ28" s="8"/>
+      <c r="BA28" s="8"/>
+      <c r="BB28" s="8"/>
+      <c r="BC28" s="8"/>
+      <c r="BD28" s="8"/>
+      <c r="BE28" s="8"/>
+      <c r="BF28" s="39"/>
+    </row>
+    <row r="29" spans="2:58" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="13"/>
-      <c r="AE28" s="11"/>
-      <c r="AF28" s="40"/>
-      <c r="AG28" s="40"/>
-      <c r="AH28" s="40"/>
-      <c r="AI28" s="40"/>
-      <c r="AJ28" s="40"/>
-      <c r="AK28" s="40"/>
-      <c r="AL28" s="40"/>
-      <c r="AM28" s="13"/>
-      <c r="AN28" s="20"/>
-      <c r="AO28" s="21"/>
-      <c r="AP28" s="21"/>
-      <c r="AQ28" s="21"/>
-      <c r="AR28" s="21"/>
-      <c r="AS28" s="21"/>
-      <c r="AT28" s="21"/>
-      <c r="AU28" s="21"/>
-      <c r="AV28" s="22"/>
-      <c r="AW28" s="11"/>
-      <c r="AX28" s="40"/>
-      <c r="AY28" s="40"/>
-      <c r="AZ28" s="40"/>
-      <c r="BA28" s="40"/>
-      <c r="BB28" s="40"/>
-      <c r="BC28" s="40"/>
-      <c r="BD28" s="40"/>
-      <c r="BE28" s="13"/>
-    </row>
-    <row r="29" spans="1:57" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="13"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="40"/>
+      <c r="AH29" s="40"/>
+      <c r="AI29" s="40"/>
+      <c r="AJ29" s="40"/>
+      <c r="AK29" s="40"/>
+      <c r="AL29" s="40"/>
+      <c r="AM29" s="40"/>
+      <c r="AN29" s="13"/>
+      <c r="AO29" s="20"/>
+      <c r="AP29" s="21"/>
+      <c r="AQ29" s="21"/>
+      <c r="AR29" s="21"/>
+      <c r="AS29" s="21"/>
+      <c r="AT29" s="21"/>
+      <c r="AU29" s="21"/>
+      <c r="AV29" s="21"/>
+      <c r="AW29" s="22"/>
+      <c r="AX29" s="11"/>
+      <c r="AY29" s="40"/>
+      <c r="AZ29" s="40"/>
+      <c r="BA29" s="40"/>
+      <c r="BB29" s="40"/>
+      <c r="BC29" s="40"/>
+      <c r="BD29" s="40"/>
+      <c r="BE29" s="40"/>
+      <c r="BF29" s="13"/>
+    </row>
+    <row r="30" spans="2:58" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.15748031496062992" right="0.27559055118110237" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3414,14 +3609,14 @@
       <selection activeCell="BO34" sqref="BO34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="28" width="2.33203125" style="3" customWidth="1"/>
-    <col min="29" max="16384" width="2.33203125" style="3"/>
+    <col min="1" max="1" width="2.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="28" width="2.375" style="3" customWidth="1"/>
+    <col min="29" max="16384" width="2.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -3666,7 +3861,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3716,7 +3911,7 @@
       <c r="CC2" s="5"/>
       <c r="CD2" s="6"/>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3766,7 +3961,7 @@
       <c r="CC3" s="8"/>
       <c r="CD3" s="9"/>
     </row>
-    <row r="4" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3816,7 +4011,7 @@
       <c r="CC4" s="12"/>
       <c r="CD4" s="13"/>
     </row>
-    <row r="5" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3866,7 +4061,7 @@
       <c r="CC5" s="10"/>
       <c r="CD5" s="9"/>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3916,7 +4111,7 @@
       <c r="CC6" s="10"/>
       <c r="CD6" s="9"/>
     </row>
-    <row r="7" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3966,7 +4161,7 @@
       <c r="CC7" s="10"/>
       <c r="CD7" s="9"/>
     </row>
-    <row r="8" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4016,7 +4211,7 @@
       <c r="CC8" s="5"/>
       <c r="CD8" s="6"/>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4066,7 +4261,7 @@
       <c r="CC9" s="8"/>
       <c r="CD9" s="9"/>
     </row>
-    <row r="10" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4116,7 +4311,7 @@
       <c r="CC10" s="12"/>
       <c r="CD10" s="13"/>
     </row>
-    <row r="11" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4139,7 +4334,7 @@
       <c r="BT11" s="5"/>
       <c r="BU11" s="6"/>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4162,7 +4357,7 @@
       <c r="BT12" s="8"/>
       <c r="BU12" s="9"/>
     </row>
-    <row r="13" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4185,7 +4380,7 @@
       <c r="BT13" s="12"/>
       <c r="BU13" s="13"/>
     </row>
-    <row r="14" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4208,7 +4403,7 @@
       <c r="BT14" s="10"/>
       <c r="BU14" s="9"/>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4231,7 +4426,7 @@
       <c r="BT15" s="10"/>
       <c r="BU15" s="9"/>
     </row>
-    <row r="16" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4254,7 +4449,7 @@
       <c r="BT16" s="10"/>
       <c r="BU16" s="9"/>
     </row>
-    <row r="17" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4277,7 +4472,7 @@
       <c r="BT17" s="5"/>
       <c r="BU17" s="6"/>
     </row>
-    <row r="18" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4300,7 +4495,7 @@
       <c r="BT18" s="8"/>
       <c r="BU18" s="9"/>
     </row>
-    <row r="19" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4323,7 +4518,7 @@
       <c r="BT19" s="12"/>
       <c r="BU19" s="13"/>
     </row>
-    <row r="20" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4364,7 +4559,7 @@
       <c r="CC20" s="5"/>
       <c r="CD20" s="6"/>
     </row>
-    <row r="21" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4405,7 +4600,7 @@
       <c r="CC21" s="8"/>
       <c r="CD21" s="9"/>
     </row>
-    <row r="22" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4446,7 +4641,7 @@
       <c r="CC22" s="12"/>
       <c r="CD22" s="13"/>
     </row>
-    <row r="23" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4487,7 +4682,7 @@
       <c r="CC23" s="10"/>
       <c r="CD23" s="9"/>
     </row>
-    <row r="24" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4528,7 +4723,7 @@
       <c r="CC24" s="10"/>
       <c r="CD24" s="9"/>
     </row>
-    <row r="25" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4569,7 +4764,7 @@
       <c r="CC25" s="10"/>
       <c r="CD25" s="9"/>
     </row>
-    <row r="26" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4610,7 +4805,7 @@
       <c r="CC26" s="5"/>
       <c r="CD26" s="6"/>
     </row>
-    <row r="27" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4651,7 +4846,7 @@
       <c r="CC27" s="8"/>
       <c r="CD27" s="9"/>
     </row>
-    <row r="28" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4692,7 +4887,7 @@
       <c r="CC28" s="12"/>
       <c r="CD28" s="13"/>
     </row>
-    <row r="29" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4715,7 +4910,7 @@
       <c r="BB29" s="5"/>
       <c r="BC29" s="6"/>
     </row>
-    <row r="30" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4738,7 +4933,7 @@
       <c r="BB30" s="8"/>
       <c r="BC30" s="9"/>
     </row>
-    <row r="31" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4761,7 +4956,7 @@
       <c r="BB31" s="12"/>
       <c r="BC31" s="13"/>
     </row>
-    <row r="32" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4784,7 +4979,7 @@
       <c r="BB32" s="10"/>
       <c r="BC32" s="9"/>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4807,7 +5002,7 @@
       <c r="BB33" s="10"/>
       <c r="BC33" s="9"/>
     </row>
-    <row r="34" spans="1:55" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4830,7 +5025,7 @@
       <c r="BB34" s="10"/>
       <c r="BC34" s="9"/>
     </row>
-    <row r="35" spans="1:55" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:55" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4853,7 +5048,7 @@
       <c r="BB35" s="5"/>
       <c r="BC35" s="6"/>
     </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4876,7 +5071,7 @@
       <c r="BB36" s="8"/>
       <c r="BC36" s="9"/>
     </row>
-    <row r="37" spans="1:55" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4899,7 +5094,7 @@
       <c r="BB37" s="12"/>
       <c r="BC37" s="13"/>
     </row>
-    <row r="38" spans="1:55" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:55" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4913,7 +5108,7 @@
       <c r="AS38" s="5"/>
       <c r="AT38" s="6"/>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4927,7 +5122,7 @@
       <c r="AS39" s="8"/>
       <c r="AT39" s="9"/>
     </row>
-    <row r="40" spans="1:55" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4941,7 +5136,7 @@
       <c r="AS40" s="12"/>
       <c r="AT40" s="13"/>
     </row>
-    <row r="41" spans="1:55" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:55" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4955,7 +5150,7 @@
       <c r="AS41" s="10"/>
       <c r="AT41" s="9"/>
     </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4969,7 +5164,7 @@
       <c r="AS42" s="10"/>
       <c r="AT42" s="9"/>
     </row>
-    <row r="43" spans="1:55" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4983,7 +5178,7 @@
       <c r="AS43" s="10"/>
       <c r="AT43" s="9"/>
     </row>
-    <row r="44" spans="1:55" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:55" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4997,7 +5192,7 @@
       <c r="AS44" s="5"/>
       <c r="AT44" s="6"/>
     </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -5011,7 +5206,7 @@
       <c r="AS45" s="8"/>
       <c r="AT45" s="9"/>
     </row>
-    <row r="46" spans="1:55" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -5025,7 +5220,7 @@
       <c r="AS46" s="12"/>
       <c r="AT46" s="13"/>
     </row>
-    <row r="47" spans="1:55" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:55" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5048,7 +5243,7 @@
       <c r="BB47" s="5"/>
       <c r="BC47" s="6"/>
     </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5071,7 +5266,7 @@
       <c r="BB48" s="8"/>
       <c r="BC48" s="9"/>
     </row>
-    <row r="49" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5094,7 +5289,7 @@
       <c r="BB49" s="12"/>
       <c r="BC49" s="13"/>
     </row>
-    <row r="50" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5117,7 +5312,7 @@
       <c r="BB50" s="10"/>
       <c r="BC50" s="9"/>
     </row>
-    <row r="51" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5140,7 +5335,7 @@
       <c r="BB51" s="10"/>
       <c r="BC51" s="9"/>
     </row>
-    <row r="52" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5163,7 +5358,7 @@
       <c r="BB52" s="10"/>
       <c r="BC52" s="9"/>
     </row>
-    <row r="53" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5186,7 +5381,7 @@
       <c r="BB53" s="5"/>
       <c r="BC53" s="6"/>
     </row>
-    <row r="54" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5209,7 +5404,7 @@
       <c r="BB54" s="8"/>
       <c r="BC54" s="9"/>
     </row>
-    <row r="55" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5232,7 +5427,7 @@
       <c r="BB55" s="12"/>
       <c r="BC55" s="13"/>
     </row>
-    <row r="56" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5273,7 +5468,7 @@
       <c r="CC56" s="5"/>
       <c r="CD56" s="6"/>
     </row>
-    <row r="57" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5314,7 +5509,7 @@
       <c r="CC57" s="8"/>
       <c r="CD57" s="9"/>
     </row>
-    <row r="58" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5355,7 +5550,7 @@
       <c r="CC58" s="12"/>
       <c r="CD58" s="13"/>
     </row>
-    <row r="59" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5396,7 +5591,7 @@
       <c r="CC59" s="10"/>
       <c r="CD59" s="9"/>
     </row>
-    <row r="60" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5437,7 +5632,7 @@
       <c r="CC60" s="10"/>
       <c r="CD60" s="9"/>
     </row>
-    <row r="61" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5478,7 +5673,7 @@
       <c r="CC61" s="10"/>
       <c r="CD61" s="9"/>
     </row>
-    <row r="62" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5519,7 +5714,7 @@
       <c r="CC62" s="5"/>
       <c r="CD62" s="6"/>
     </row>
-    <row r="63" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5560,7 +5755,7 @@
       <c r="CC63" s="8"/>
       <c r="CD63" s="9"/>
     </row>
-    <row r="64" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5601,7 +5796,7 @@
       <c r="CC64" s="12"/>
       <c r="CD64" s="13"/>
     </row>
-    <row r="65" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5624,7 +5819,7 @@
       <c r="BT65" s="5"/>
       <c r="BU65" s="6"/>
     </row>
-    <row r="66" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5647,7 +5842,7 @@
       <c r="BT66" s="8"/>
       <c r="BU66" s="9"/>
     </row>
-    <row r="67" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5670,7 +5865,7 @@
       <c r="BT67" s="12"/>
       <c r="BU67" s="13"/>
     </row>
-    <row r="68" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5693,7 +5888,7 @@
       <c r="BT68" s="10"/>
       <c r="BU68" s="9"/>
     </row>
-    <row r="69" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5716,7 +5911,7 @@
       <c r="BT69" s="10"/>
       <c r="BU69" s="9"/>
     </row>
-    <row r="70" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5739,7 +5934,7 @@
       <c r="BT70" s="10"/>
       <c r="BU70" s="9"/>
     </row>
-    <row r="71" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5762,7 +5957,7 @@
       <c r="BT71" s="5"/>
       <c r="BU71" s="6"/>
     </row>
-    <row r="72" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5785,7 +5980,7 @@
       <c r="BT72" s="8"/>
       <c r="BU72" s="9"/>
     </row>
-    <row r="73" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5808,7 +6003,7 @@
       <c r="BT73" s="12"/>
       <c r="BU73" s="13"/>
     </row>
-    <row r="74" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5849,7 +6044,7 @@
       <c r="CC74" s="5"/>
       <c r="CD74" s="6"/>
     </row>
-    <row r="75" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5890,7 +6085,7 @@
       <c r="CC75" s="8"/>
       <c r="CD75" s="9"/>
     </row>
-    <row r="76" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5931,7 +6126,7 @@
       <c r="CC76" s="12"/>
       <c r="CD76" s="13"/>
     </row>
-    <row r="77" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5972,7 +6167,7 @@
       <c r="CC77" s="10"/>
       <c r="CD77" s="9"/>
     </row>
-    <row r="78" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -6013,7 +6208,7 @@
       <c r="CC78" s="10"/>
       <c r="CD78" s="9"/>
     </row>
-    <row r="79" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -6054,7 +6249,7 @@
       <c r="CC79" s="10"/>
       <c r="CD79" s="9"/>
     </row>
-    <row r="80" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6095,7 +6290,7 @@
       <c r="CC80" s="5"/>
       <c r="CD80" s="6"/>
     </row>
-    <row r="81" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6136,7 +6331,7 @@
       <c r="CC81" s="8"/>
       <c r="CD81" s="9"/>
     </row>
-    <row r="82" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6177,7 +6372,7 @@
       <c r="CC82" s="12"/>
       <c r="CD82" s="13"/>
     </row>
-    <row r="83" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
